--- a/230317 코드 전체, 데이터 백업/bf_data_revising0319/new_tel_review_added.xlsx
+++ b/230317 코드 전체, 데이터 백업/bf_data_revising0319/new_tel_review_added.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>['1', '1', 'cd274f3f2d7ccdb28111e6d3ca67339520221011093235', 'bf', '5.0', '신협', 'category7', '7', '', '36.314682364172', '127.38302164873', '', '대전광역시 서구 도마동', '', '3017010300', "{'openDays': '', 'openTime': '', 'closeTime': ''}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '', '', 'Y', '3', 'nong2222@naver.com', 'kakaotalk', '2022-10-11 09:32:35', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 9, "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 1, "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 15, "sfsDesc": {"en": "The Internet connection is stable", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uc5d0\\uc11c \\uc778\\ud130\\ub137\\uc774 \\ub04a\\uc784\\uc5c6\\uc774 \\uc5f0\\uacb0"}, "sfsName": {"en": "Wifi zone", "ko": "\\ubb34\\ub8cc \\ubb34\\uc120 \\uc778\\ud130\\ub137 \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 7, "sfsIconName": "icon_wifi.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 16, "sfsDesc": [], "sfsName": {"en": "Suitable for family / children", "ko": "\\uac00\\uc871/\\uc5b4\\ub9b0\\uc774 \\uc774\\uc6a9\\uc5d0 \\uc801\\ud569"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 8, "sfsIconName": "icon_people.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '도마동', '대전광역시 서구 계백로 1461', '35332.0', '', '', '', '16194141.0', '16194141.0', 'True', '대전푸른신협 도마본점', '[{"pk_0": "img_pk_cd274f3f2d7ccdb28111e6d3ca67339520221011093235_0.jpg"}, {"cid_0": "img_cid_16194141_0.jpg"}, {"pk_1": "img_pk_cd274f3f2d7ccdb28111e6d3ca67339520221011093235_1.jpg"}, {"cid_1": "img_cid_16194141_1.jpg"}]', '16194141.0', 'True', 'no_rating', '', '대전푸른신협 도마본점', '', '[]', '042-522-4086', '[]', '[]', '[]']</t>
+          <t>['1', '1', 'cd274f3f2d7ccdb28111e6d3ca67339520221011093235', 'bf', '5.0', '신협', 'category7', '7', '', '36.314682364172', '127.38302164873', '', '대전광역시 서구 도마동', '', '3017010300', "{'openDays': '', 'openTime': '', 'closeTime': ''}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '', '', 'Y', '3', 'nong2222@naver.com', 'kakaotalk', '2022-10-11 09:32:35', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 9, "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 1, "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 15, "sfsDesc": {"en": "The Internet connection is stable", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uc5d0\\uc11c \\uc778\\ud130\\ub137\\uc774 \\ub04a\\uc784\\uc5c6\\uc774 \\uc5f0\\uacb0"}, "sfsName": {"en": "Wifi zone", "ko": "\\ubb34\\ub8cc \\ubb34\\uc120 \\uc778\\ud130\\ub137 \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 7, "sfsIconName": "icon_wifi.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 16, "sfsDesc": [], "sfsName": {"en": "Suitable for family / children", "ko": "\\uac00\\uc871/\\uc5b4\\ub9b0\\uc774 \\uc774\\uc6a9\\uc5d0 \\uc801\\ud569"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 8, "sfsIconName": "icon_people.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '도마동', '대전광역시 서구 계백로 1461', '35332.0', '', '', '', '16194141.0', '16194141.0', 'True', '대전푸른신협 도마본점</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>['6', '6', '289e2b771674caef0fb67b231fdb9bbc20220206125155', 'bf', '5.0', '신성동 우체국', 'category5', '5', '', '36.389963446868', '127.3487098109', '', '대전광역시 유성구 신성동', '', '3020012500', "{'openDays': ['mon', 'tue', 'wed', 'thu', 'fri'], 'openTime': '09:00', 'closeTime': '18:00'}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '0428613200', '', 'Y', '3', 'dahyee0218@daum.net', 'kakaotalk', '2022-02-06 12:51:55', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 9, "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 1, "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 11, "sfsDesc": [], "sfsName": {"en": "Pet helpers allowed", "ko": "\\uc560\\uc644\\uacac/\\ub3c4\\uc6b0\\ubbf8\\uacac \\ucd9c\\uc785\\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 3, "sfsIconName": "icon_pet.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 15, "sfsDesc": {"en": "The Internet connection is stable", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uc5d0\\uc11c \\uc778\\ud130\\ub137\\uc774 \\ub04a\\uc784\\uc5c6\\uc774 \\uc5f0\\uacb0"}, "sfsName": {"en": "Wifi zone", "ko": "\\ubb34\\ub8cc \\ubb34\\uc120 \\uc778\\ud130\\ub137 \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 7, "sfsIconName": "icon_wifi.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 16, "sfsDesc": [], "sfsName": {"en": "Suitable for family / children", "ko": "\\uac00\\uc871/\\uc5b4\\ub9b0\\uc774 \\uc774\\uc6a9\\uc5d0 \\uc801\\ud569"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 8, "sfsIconName": "icon_people.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '신성동', '대전광역시 유성구 신성로 73', '34107.0', '', '', '', '13328942.0', '13328942.0', 'True', '신성동우체국', '[{"pk_0": "img_pk_289e2b771674caef0fb67b231fdb9bbc20220206125155_0.jpg"}, {"cid_0": "img_cid_13328942_0.jpg"}, {"pk_1": "img_pk_289e2b771674caef0fb67b231fdb9bbc20220206125155_1.jpg"}, {"cid_1": "img_cid_13328942_1.jpg"}]', '13328942.0', 'True', 'no_rating', '', '신성동우체국', '', '[]', '042-861-3200', '[]', '[]', '[&lt;li class="pcPAT"&gt;&lt;a class="CqNtE" href="https://blog.naver.com/ynsolution1/222987375299" role="button" target="_blank"&gt;&lt;div class="sDBiR"&gt;&lt;span class="qCU_P"&gt;&lt;img alt="프로필" class="DumTq" height="24" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f48_48&amp;amp;src=http%3A%2F%2Fblogpfthumb.phinf.naver.net%2FMjAxOTA5MDZfNDUg%2FMDAxNTY3NzUzNTA5NTAx.1jC9PLM0NRjIW9_YHwdSMtcG_WrcX7RqujedPFPgpCIg.PA2xgA0D_xOJqGu4GhDjKBorYYwZtWTPORFWyQCT9e0g.PNG.ynsolution1%2F20190906_160449.png" width="24"/&gt;&lt;/span&gt;&lt;span class="AoB7r"&gt;YN솔루션&lt;/span&gt;&lt;div class="BB1G2 wa2b6"&gt;&lt;span class="R2jvi"&gt;키오스크 설치 / AS관리 전문&lt;/span&gt;&lt;/div&gt;&lt;span class="BB1G2"&gt;&lt;time aria-hidden="true"&gt;1.17.화&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 1월 17일 화요일&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="icjKM"&gt;&lt;div class="fdXfj"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="블로그" height="87" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f180_180&amp;amp;src=http%3A%2F%2Fblogfiles.naver.net%2FMjAyMzAxMTdfOTAg%2FMDAxNjczOTYzOTEwNDk1.xyz2jVi0TnUrbxSco8IMMpvF_qPVWt4wrpIctO2LCLMg.XlQzIni9Z90isbqnXQkgarIw4sFIMK4UVcmqiDCQYdMg.JPEG.ynsolution1%2FS__27156486.jpg%231109x1479" width="87"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;12&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="QDJES"&gt;&lt;div class="v6ZcW"&gt;&lt;div class="rGI3P"&gt;&lt;span class="place_bluelink st60D"&gt;대전 코인노래방 키오스크 설치 사례&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Ns0Qo"&gt;&lt;div class="p7XcC"&gt;대전 유성구 코인노래방 설치 사례 안녕하세요 :) 새해복 많이 받으세요 ♥ 대전 유성구 코인노래방에서 키오스크 설치 의뢰가 들어와 다녀왔습니다. 코인노래방은 사계절 내내 열풍인것 같습니다. 건물 2층에 위치한... &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;, &lt;li class="pcPAT"&gt;&lt;a class="CqNtE" href="https://blog.naver.com/minarigirl/220573846229" role="button" target="_blank"&gt;&lt;div class="sDBiR"&gt;&lt;span class="qCU_P"&gt;&lt;img alt="프로필" class="DumTq" height="24" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f48_48&amp;amp;src=http%3A%2F%2Fblogpfthumb.phinf.naver.net%2F20200710_70%2Fminarigirl_1594382131709hqzPP_PNG%2Fimage.png" width="24"/&gt;&lt;/span&gt;&lt;span class="AoB7r"&gt;포미&lt;/span&gt;&lt;div class="BB1G2 wa2b6"&gt;&lt;span class="R2jvi"&gt;포미의 골방&lt;/span&gt;&lt;/div&gt;&lt;span class="BB1G2"&gt;&lt;time aria-hidden="true"&gt;15.12.20.일&lt;/time&gt;&lt;span class="place_blind"&gt;2015년 12월 20일 일요일&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="icjKM"&gt;&lt;div class="fdXfj"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="블로그" height="87" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f180_180&amp;amp;src=http%3A%2F%2Fblogfiles.naver.net%2F20151220_42%2Fminarigirl_1450609494790nQdQs_JPEG%2FNaverBlog_20151218_202405_00.jpg%23550x550" width="87"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;10&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="QDJES"&gt;&lt;div class="v6ZcW"&gt;&lt;div class="rGI3P"&gt;&lt;span class="place_bluelink st60D"&gt;정직한 커피를 파는 카페 대전 신성동 "커피 땅거미"&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Ns0Qo"&gt;&lt;div class="p7XcC"&gt;신성동 커피 맛집 추천 정직한 커피를 파는 카페 대전 신성동 "커피 땅거미" 비가 추적추적 내리는 평일 낮 커피 한잔이 매우 땡기는 시간이죠. 지인이 추천해 준 카페를 가보기로 했어요. 위치는 대전 신성동 우체국 바로... &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;, &lt;li class="pcPAT"&gt;&lt;a class="CqNtE" href="https://blog.naver.com/ojh04062/220274091942" role="button" target="_blank"&gt;&lt;div class="sDBiR"&gt;&lt;span class="qCU_P"&gt;&lt;img alt="프로필" class="DumTq" height="24" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f48_48&amp;amp;src=http%3A%2F%2Fblogpfthumb.phinf.naver.net%2F20140403_145%2Fojh04062_1396521238168r3Hd3_JPEG%2F%25B4%25D9%25C0%25CC%25BE%25EE%25C6%25AE%25C0%25DA%25B1%25D84.jpg" width="24"/&gt;&lt;/span&gt;&lt;span class="AoB7r"&gt;콩콩언니&lt;/span&gt;&lt;div class="BB1G2 wa2b6"&gt;&lt;span class="R2jvi"&gt;새해엔 꼭 예쁜라인만들기~!!&lt;/span&gt;&lt;/div&gt;&lt;span class="BB1G2"&gt;&lt;time aria-hidden="true"&gt;15.2.15.일&lt;/time&gt;&lt;span class="place_blind"&gt;2015년 2월 15일 일요일&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="icjKM"&gt;&lt;div class="fdXfj"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="블로그" height="87" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f180_180&amp;amp;src=http%3A%2F%2Fblogfiles.naver.net%2F20150215_295%2Fojh04062_1423992301184hTLMs_JPEG%2F20150215_150110.jpg%23500x281" width="87"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;18&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="QDJES"&gt;&lt;div class="v6ZcW"&gt;&lt;div class="rGI3P"&gt;&lt;span class="place_bluelink st60D"&gt;대전 신성동 카페 \'뜰이 있는 집\'&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Ns0Qo"&gt;&lt;div class="p7XcC"&gt;대전 신성동 카페 \'뜰이 있는 집\' 2월 15일 일요일... 겨울이 가고 봄이 오니 뭔가 긴장이 풀리는것같은 느낌이예요~ 잠도 조금 더 늘어나는 것같고 나른해지고... 새로운 곳도 가보고 싶고~ 벌써 봄을 타는걸까요? 일요일은... &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;]']</t>
+          <t>['6', '6', '289e2b771674caef0fb67b231fdb9bbc20220206125155', 'bf', '5.0', '신성동 우체국', 'category5', '5', '', '36.389963446868', '127.3487098109', '', '대전광역시 유성구 신성동', '', '3020012500', "{'openDays': ['mon', 'tue', 'wed', 'thu', 'fri'], 'openTime': '09:00', 'closeTime': '18:00'}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '0428613200', '', 'Y', '3', 'dahyee0218@daum.net', 'kakaotalk', '2022-02-06 12:51:55', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 9, "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 1, "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 11, "sfsDesc": [], "sfsName": {"en": "Pet helpers allowed", "ko": "\\uc560\\uc644\\uacac/\\ub3c4\\uc6b0\\ubbf8\\uacac \\ucd9c\\uc785\\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 3, "sfsIconName": "icon_pet.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 15, "sfsDesc": {"en": "The Internet connection is stable", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uc5d0\\uc11c \\uc778\\ud130\\ub137\\uc774 \\ub04a\\uc784\\uc5c6\\uc774 \\uc5f0\\uacb0"}, "sfsName": {"en": "Wifi zone", "ko": "\\ubb34\\ub8cc \\ubb34\\uc120 \\uc778\\ud130\\ub137 \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 7, "sfsIconName": "icon_wifi.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 16, "sfsDesc": [], "sfsName": {"en": "Suitable for family / children", "ko": "\\uac00\\uc871/\\uc5b4\\ub9b0\\uc774 \\uc774\\uc6a9\\uc5d0 \\uc801\\ud569"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 8, "sfsIconName": "icon_people.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '신성동', '대전광역시 유성구 신성로 73', '34107.0', '', '', '', '13328942.0', '13328942.0', 'True', '신성동우체국', '[{"pk_0": "img_pk_289e2b771674caef0fb67b231fdb9bbc20220206125155_0.jpg"}, {"cid_0": "img_cid_13328942_0.jpg"}, {"pk_1": "img_pk_289e2b771674caef0fb67b231fdb9bbc20220206125155_1.jpg"}, {"cid_1": "img_cid_13328942_1.jpg"}]', '13328942.0', 'True', 'no_rating', '', '신성동우체국', '', '[]', '042-861-3200', '[]', '[]', '[&lt;li class="pcPAT"&gt;&lt;a class="CqNtE" href="https://blog.naver.com/ynsolution1/222987375299" role="button" target="_blank"&gt;&lt;div class="sDBiR"&gt;&lt;span class="qCU_P"&gt;&lt;img alt="프로필" class="DumTq" height="24" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f48_48&amp;amp;src=http%3A%2F%2Fblogpfthumb.phinf.naver.net%2FMjAxOTA5MDZfNDUg%2FMDAxNTY3NzUzNTA5NTAx.1jC9PLM0NRjIW9_YHwdSMtcG_WrcX7RqujedPFPgpCIg.PA2xgA0D_xOJqGu4GhDjKBorYYwZtWTPORFWyQCT9e0g.PNG.ynsolution1%2F20190906_160449.png" width="24"/&gt;&lt;/span&gt;&lt;span class="AoB7r"&gt;YN솔루션&lt;/span&gt;&lt;div class="BB1G2 wa2b6"&gt;&lt;span class="R2jvi"&gt;키오스크 설치 / AS관리 전문&lt;/span&gt;&lt;/div&gt;&lt;span class="BB1G2"&gt;&lt;time aria-hidden="true"&gt;1.17.화&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 1월 17일 화요일&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="icjKM"&gt;&lt;div class="fdXfj"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="블로그" height="87" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f180_180&amp;amp;src=http%3A%2F%2Fblogfiles.naver.net%2FMjAyMzAxMTdfOTAg%2FMDAxNjczOTYzOTEwNDk1.xyz2jVi0TnUrbxSco8IMMpvF_qPVWt4wrpIctO2LCLMg.XlQzIni9Z90isbqnXQkgarIw4sFIMK4UVcmqiDCQYdMg.JPEG.ynsolution1%2FS__27156486.jpg%231109x1479" width="87"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;12&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="QDJES"&gt;&lt;div class="v6ZcW"&gt;&lt;div class="rGI3P"&gt;&lt;span class="place_bluelink st60D"&gt;대전 코인노래방 키오스크 설치 사례&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Ns0Qo"&gt;&lt;div class="p7XcC"&gt;대전 유성구 코인노래방 설치 사례 안녕하세요 :) 새해복 많이 받으세요 ♥ 대전 유성구 코인노래방에서 키오스크 설치 의뢰가 들어와 다녀왔습니다. 코인노래방은 사계절 내내 열풍인것 같습니다. 건물 2층에 위치한... &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;, &lt;li class="pcPAT"&gt;&lt;a class="CqNtE" href="https://blog.naver.com/minarigirl/220573846229" role="button" target="_blank"&gt;&lt;div class="sDBiR"&gt;&lt;span class="qCU_P"&gt;&lt;img alt="프로필" class="DumTq" height="24" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f48_48&amp;amp;src=http%3A%2F%2Fblogpfthumb.phinf.naver.net%2F20200710_70%2Fminarigirl_1594382131709hqzPP_PNG%2Fimage.png" width="24"/&gt;&lt;/span&gt;&lt;span class="AoB7r"&gt;포미&lt;/span&gt;&lt;div class="BB1G2 wa2b6"&gt;&lt;span class="R2jvi"&gt;포미의 골방&lt;/span&gt;&lt;/div&gt;&lt;span class="BB1G2"&gt;&lt;time aria-hidden="true"&gt;15.12.20.일&lt;/time&gt;&lt;span class="place_blind"&gt;2015년 12월 20일 일요일&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="icjKM"&gt;&lt;div class="fdXfj"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="블로그" height="87" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f180_180&amp;amp;src=http%3A%2F%2Fblogfiles.naver.net%2F20151220_42%2Fminarigirl_1450609494790nQdQs_JPEG%2FNaverBlog_20151218_202405_00.jpg%23550x550" width="87"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;10&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="QDJES"&gt;&lt;div class="v6ZcW"&gt;&lt;div class="rGI3P"&gt;&lt;span class="place_bluelink st60D"&gt;정직한 커피를 파는 카페 대전 신성동 "커피 땅거미"&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Ns0Qo"&gt;&lt;div class="p7XcC"&gt;신성동 커피 맛집 추천 정직한 커피를 파는 카페 대전 신성동 "커피 땅거미" 비가 추적추적 내리는 평일 낮 커피 한잔이 매우 땡기는 시간이죠. 지인이 추천해 준 카페를 가보기로 했어요. 위치는 대전 신성동 우체국 바로... &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;, &lt;li class="pcPAT"&gt;&lt;a class="CqNtE" href="https://blog.naver.com/ojh04062/220274091942" role="button" target="_blank"&gt;&lt;div class="sDBiR"&gt;&lt;span class="qCU_P"&gt;&lt;img alt="프로필" class="DumTq" height="24" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f48_48&amp;amp;src=http%3A%2F%2Fblogpfthumb.phinf.naver.net%2F20140403_145%2Fojh04062_1396521238168r3Hd3_JPEG%2F%25B4%25D9%25C0%25CC%25BE%25EE%25C6%25AE%25C0%25DA%25B1%25D84.jpg" width="24"/&gt;&lt;/span&gt;&lt;span class="AoB7r"&gt;콩콩언니&lt;/span&gt;&lt;div class="BB1G2 wa2b6"&gt;&lt;span class="R2jvi"&gt;새해엔 꼭 예쁜라인만들기~!!&lt;/span&gt;&lt;/div&gt;&lt;span class="BB1G2"&gt;&lt;time aria-hidden="true"&gt;15.2.15.일&lt;/time&gt;&lt;span class="place_blind"&gt;2015년 2월 15일 일요일&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="icjKM"&gt;&lt;div class="fdXfj"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="블로그" height="87" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f180_180&amp;amp;src=http%3A%2F%2Fblogfiles.naver.net%2F20150215_295%2Fojh04062_1423992301184hTLMs_JPEG%2F20150215_150110.jpg%23500x281" width="87"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;18&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="QDJES"&gt;&lt;div class="v6ZcW"&gt;&lt;div class="rGI3P"&gt;&lt;span class="place_bluelink st60D"&gt;대전 신성동 카페 \'뜰이 있는 집\'&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Ns0Qo"&gt;&lt;div class="p7XcC"&gt;대전 신성동 카페 \'뜰이 있는 집\' 2월 15일 일요일... 겨울이 가고 봄이 오니 뭔가 긴장이 풀리는것같은 느낌이예요~ 잠도 조금 더 늘어나는 것같고 나른해지고... 새로운 곳도 가보고 싶고~ 벌써 봄을 타는</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>['51', '51', '2dda9d970eb7ed2b2d13c66fb0308b8620200717022414', 'bf', '5.0', '사리원', 'category1', '0', '1.0', '36.355610375913', '127.37708106374', '35229', '대전광역시 서구 둔산북로 22', '둔산라이프종합상가', '', "{'openDays': '', 'openTime': '', 'closeTime': ''}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '', '', 'Y', '7', 'wangbikim@daum.net', 'kakaotalk', '2020-07-17 02:24:14', '0', '0', '[{"sfsSeq": "8", "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "0", "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "10", "sfsDesc": [], "sfsName": {"en": "Disabled toilet available", "ko": "\\uc7a5\\uc560\\uc778 \\ud654\\uc7a5\\uc2e4 \\uc788\\uc74c"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "2", "sfsIconName": "icon_restroom.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "13", "sfsDesc": {"en": "There must be no stairs on the way to the elevator, and the width of the elevator entrance must be at least 32 inches / 81 cm.", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130\\uae4c\\uc9c0 \\uc774\\ub3d9\\ud558\\ub294\\ub370 \\uacc4\\ub2e8\\uc774 \\uc5c6\\uc5b4\\uc57c\\ud558\\uba70, \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130 \\uc785\\uad6c\\uc758 \\uac00\\ub85c \\uae38\\uc774\\uac00 \\ucd5c\\uc18c 32\\uc778\\uce58/81cm\\uc774\\uc5b4\\uc57c \\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Elevator", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "5", "sfsIconName": "icon_elevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "14", "sfsDesc": [], "sfsName": {"en": "Free parking", "ko": "\\uac74\\ubb3c \\ub0b4 \\ubb34\\ub8cc \\uc8fc\\ucc28"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "6", "sfsIconName": "icon_parking.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "15", "sfsDesc": {"en": "The Internet connection is stable", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uc5d0\\uc11c \\uc778\\ud130\\ub137\\uc774 \\ub04a\\uc784\\uc5c6\\uc774 \\uc5f0\\uacb0"}, "sfsName": {"en": "Wifi zone", "ko": "\\ubb34\\uc120 \\uc778\\ud130\\ub137"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "7", "sfsIconName": "icon_wifi.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '둔산동', '대전광역시 서구 둔산북로 22', '35229.0', '', '', '', '19796718.0', '19796718.0', 'True', '사리원 본점', '[{"pk_0": "img_pk_2dda9d970eb7ed2b2d13c66fb0308b8620200717022414_0.jpg"}, {"cid_0": "img_cid_19796718_0.jpg"}, {"pk_1": "img_pk_2dda9d970eb7ed2b2d13c66fb0308b8620200717022414_1.jpg"}, {"cid_1": "img_cid_19796718_1.jpg"}, {"pk_2": "img_pk_2dda9d970eb7ed2b2d13c66fb0308b8620200717022414_2.jpg"}, {"cid_2": "img_cid_19796718_2.jpg"}, {"pk_3": "img_pk_2dda9d970eb7ed2b2d13c66fb0308b8620200717022414_3.jpg"}, {"cid_3": "img_cid_19796718_3.jpg"}]', '19796718.0', 'True', '4.27', '[867]', '사리원 본점', '[{"\\"\\u00ec\\u009d\\u008c\\u00ec\\u008b\\u009d\\u00ec\\u009d\\u00b4 \\u00eb\\u00a7\\u009b\\u00ec\\u009e\\u0088\\u00ec\\u0096\\u00b4\\u00ec\\u009a\\u0094\\"": "400"}, {"\\"\\u00ec\\u00b9\\u009c\\u00ec\\u00a0\\u0088\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "121"}, {"\\"\\u00eb\\u00a7\\u00a4\\u00ec\\u009e\\u00a5\\u00ec\\u009d\\u00b4 \\u00eb\\u0084\\u0093\\u00ec\\u0096\\u00b4\\u00ec\\u009a\\u0094\\"": "97"}, {"\\"\\u00ec\\u009e\\u00ac\\u00eb\\u00a3\\u008c\\u00ea\\u00b0\\u0080 \\u00ec\\u008b\\u00a0\\u00ec\\u0084\\u00a0\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "85"}, {"\\"\\u00eb\\u00a7\\u00a4\\u00ec\\u009e\\u00a5\\u00ec\\u009d\\u00b4 \\u00ec\\u00b2\\u00ad\\u00ea\\u00b2\\u00b0\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "85"}, {"\\"\\u00eb\\u008b\\u00a8\\u00ec\\u00b2\\u00b4\\u00eb\\u00aa\\u00a8\\u00ec\\u009e\\u0084 \\u00ed\\u0095\\u0098\\u00ea\\u00b8\\u00b0 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "70"}, {"\\"\\u00ed\\u008a\\u00b9\\u00eb\\u00b3\\u0084\\u00ed\\u0095\\u009c \\u00eb\\u00a9\\u0094\\u00eb\\u0089\\u00b4\\u00ea\\u00b0\\u0080 \\u00ec\\u009e\\u0088\\u00ec\\u0096\\u00b4\\u00ec\\u009a\\u0094\\"": "46"}, {"\\"\\u00ec\\u0096\\u0091\\u00ec\\u009d\\u00b4 \\u00eb\\u00a7\\u008e\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "38"}, {"\\"\\u00ea\\u00b0\\u0080\\u00ec\\u0084\\u00b1\\u00eb\\u00b9\\u0084\\u00ea\\u00b0\\u0080 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "35"}, {"\\"\\u00ec\\u00a3\\u00bc\\u00ec\\u00b0\\u00a8\\u00ed\\u0095\\u0098\\u00ea\\u00b8\\u00b0 \\u00ed\\u008e\\u00b8\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "29"}, {"\\"\\u00ed\\u0099\\u0094\\u00ec\\u009e\\u00a5\\u00ec\\u008b\\u00a4\\u00ec\\u009d\\u00b4 \\u00ea\\u00b9\\u00a8\\u00eb\\u0081\\u0097\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "27"}, {"\\"\\u00ed\\u008a\\u00b9\\u00eb\\u00b3\\u0084\\u00ed\\u0095\\u009c \\u00eb\\u0082\\u00a0 \\u00ea\\u00b0\\u0080\\u00ea\\u00b8\\u00b0 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "26"}, {"\\"\\u00ec\\u009d\\u00b8\\u00ed\\u0085\\u008c\\u00eb\\u00a6\\u00ac\\u00ec\\u0096\\u00b4\\u00ea\\u00b0\\u0080 \\u00eb\\u00a9\\u008b\\u00ec\\u00a0\\u00b8\\u00ec\\u009a\\u0094\\"": "18"}, {"\\"\\u00eb\\u00b7\\u00b0\\u00ea\\u00b0\\u0080 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "8"}, {"\\"\\u00ed\\u0098\\u00bc\\u00eb\\u00b0\\u00a5\\u00ed\\u0095\\u0098\\u00ea\\u00b8\\u00b0 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "7"}]', '[\'&lt;div class="w9QyJ vI8SM"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;em&gt;영업 중&lt;/em&gt;&lt;span class="U7pYf"&gt;&lt;time aria-hidden="true"&gt;15:30에 브레이크타임&lt;/time&gt;&lt;span class="place_blind"&gt;15시 30분에 브레이크타임&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;매일&lt;/span&gt;&lt;div class="H3ua4"&gt;11:00 - 21:30&lt;br/&gt;15:30 - 16:30 브레이크타임&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ yN6TD"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;div&gt; - 브레이크타임 조정이 있을 수 있으니 가게 연락바람&lt;/div&gt;&lt;/span&gt;&lt;span class="_UCia"&gt;&lt;svg aria-hidden="true" class="DNzQ2" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;접기&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\']', '042-487-4209', '[&lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;정신없이 먹느라 사진을 못찍었는데 진짜 한우 개\n존맛입니다!!!! 갈비도 달지 않구 맛있구요!! 계란찜\n은 1개 다 추가할까말까 엄청 고민했어요 ㅋ...&lt;/span&gt;&lt;span class="rvCSr"&gt;&lt;svg aria-hidden="true" class="Ky28p" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;내용 더보기&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5e6b51728f87a842bc1a06a4/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5e6b51728f87a842bc1a06a4/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;Hola25&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;1.23.월&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 1월 23일 월요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="x0W33"&gt;&lt;a class="place_thumb" href="#" role="button" target="_self"&gt;&lt;img alt="방문자리뷰" class="_img" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f87_87&amp;amp;src=https%3A%2F%2Fpup-review-phinf.pstatic.net%2FMjAyMzAxMjVfMTU1%2FMDAxNjc0NjEwNjI1NDA3.8z761oZADIazGF57fdxTD9-5RdbbP-rwHg4Qgt5bV0Ig.EklidTqPsAUdgq8LkfO0A7pBinoeVpv3KwAblsUXjswg.JPEG%2F19A89C0F-125A-45B9-9F61-398091C4BD14.jpeg"/&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;숯불갈비먹었는데 맛있네요 냉면도 평양냉면식으로 안에 들어있는 편육이랑 배랑 야채도 신선하구요 앞으로 자주 가야겠어요!!&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5b9cfc1d5df9c922a5456ecb/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5b9cfc1d5df9c922a5456ecb/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;아아1008&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;3.5.일&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 5일 일요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;맛있고 직원분들이 친절하세요&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5bf3d03853c3da3666439af4/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5bf3d03853c3da3666439af4/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;송콩38&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;3.4.토&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 4일 토요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="x0W33"&gt;&lt;a class="place_thumb" href="#" role="button" target="_self"&gt;&lt;img alt="방문자리뷰" class="_img" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f87_87&amp;amp;src=https%3A%2F%2Fpup-review-phinf.pstatic.net%2FMjAyMzAzMTNfNTYg%2FMDAxNjc4NzEzMjA4OTM1.OSnWOqAmaSVCmVDVMg0G71bZ7BRL1ChqPRzj8lMmUZAg.Us-mHeTdYJVikHR6cPbUMTEUNEyL1SytaJdJPZ01wKUg.JPEG%2F28039BFE-C8FB-489E-8634-7E2FCA76D202.jpeg"/&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;]', '[&lt;li class="nc5wr"&gt;&lt;span class="pNnVF"&gt;분위기&lt;/span&gt;&lt;span class="sJgQj"&gt;고급스러운&lt;/span&gt;&lt;/li&gt;, &lt;li class="nc5wr"&gt;&lt;span class="pNnVF"&gt;인기토픽&lt;/span&gt;&lt;span class="sJgQj"&gt;만두&lt;/span&gt;&lt;span class="sJgQj"&gt;, 한우&lt;/span&gt;&lt;span class="sJgQj"&gt;, 냉면&lt;/span&gt;&lt;span class="sJgQj"&gt;, 갈비탕&lt;/span&gt;&lt;span class="sJgQj"&gt;, 불고기&lt;/span&gt;&lt;/li&gt;, &lt;li class="nc5wr"&gt;&lt;span class="pNnVF"&gt;찾는목적&lt;/span&gt;&lt;span class="sJgQj"&gt;점심특선&lt;/span&gt;&lt;/li&gt;]', '[&lt;li class="yhGu6"&gt;&lt;a class="Ozh8q" href="/restaurant/19796718/menu/19796718_0" role="button"&gt;&lt;div class="ZHqBk"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="평양식 물냉면" height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f400_300&amp;amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20191122_194%2F1574414882532zTgL1_JPEG%2FA5pImN1rARyG3hZ_DICuYggr.jpg" width="100%"/&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="MN48z"&gt;&lt;div class="erVoL"&gt;&lt;div class="MENyI"&gt;평양식 물냉면&lt;/div&gt;&lt;/div&gt;&lt;div class="Yrsei"&gt;&lt;div class="gl2cc"&gt;11,000원&lt;/div&gt;&lt;/div&gt;&lt;div class="Qh_eq"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;, &lt;li class="yhGu6"&gt;&lt;a class="Ozh8q" href="/restaurant/19796718/menu/19796718_1" role="button"&gt;&lt;div class="ZHqBk"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="사리원 소불고기" height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f400_300&amp;amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20220225_32%2F1645755658768x6eEt_JPEG%2F%25BB%25E7%25B8%25AE%25BF%25F8%25BC%25D2%25BA%25D2%25B0%25ED%25B1%25E2%2528%25C3%25D6%25C1%25BE%2529.jpg" width="100%"/&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="MN48z"&gt;&lt;div class="erVoL"&gt;&lt;div class="MENyI"&gt;사리원 소불고기&lt;/div&gt;&lt;/div&gt;&lt;div class="Yrsei"&gt;&lt;div class="gl2cc"&gt;17,000원&lt;/div&gt;&lt;/div&gt;&lt;div class="Qh_eq"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;, &lt;li class="yhGu6"&gt;&lt;a class="Ozh8q" href="/restaurant/19796718/menu/19796718_2" role="button"&gt;&lt;div class="ZHqBk"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="참나무숯 돼지구이" height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f400_300&amp;amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20220225_201%2F1645755798090VmWvd_JPEG%2F0%25B5%25C5%25C1%25F6%25B0%25A5%25BA%25F1.jpg" width="100%"/&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="MN48z"&gt;&lt;div class="erVoL"&gt;&lt;div class="MENyI"&gt;참나무숯 돼지구이&lt;/div&gt;&lt;/div&gt;&lt;div class="Yrsei"&gt;&lt;div class="gl2cc"&gt;16,000원&lt;/div&gt;&lt;/div&gt;&lt;div class="Qh_eq"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;, &lt;li class="yhGu6"&gt;&lt;a class="Ozh8q" href="/restaurant/19796718/menu/19796718_3" role="button"&gt;&lt;div class="ZHqBk"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="평양식 비빔냉면" height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f400_300&amp;amp;src=https%3A%2F%2Fldb-phinf.pstatic.net%2F20220225_34%2F1645755670196pXIWm_JPEG%2F_MG_0452-%25BA%25F1%25BA%25F6%25B3%25C3%25B8%25E9.jpg" width="100%"/&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="MN48z"&gt;&lt;div class="erVoL"&gt;&lt;div class="MENyI"&gt;평양식 비빔냉면&lt;/div&gt;&lt;/div&gt;&lt;div class="Yrsei"&gt;&lt;div class="gl2cc"&gt;11,000원&lt;/div&gt;&lt;/div&gt;&lt;div class="Qh_eq"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;]']</t>
+          <t>['51', '51', '2dda9d970eb7ed2b2d13c66fb0308b8620200717022414', 'bf', '5.0', '사리원', 'category1', '0', '1.0', '36.355610375913', '127.37708106374', '35229', '대전광역시 서구 둔산북로 22', '둔산라이프종합상가', '', "{'openDays': '', 'openTime': '', 'closeTime': ''}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '', '', 'Y', '7', 'wangbikim@daum.net', 'kakaotalk', '2020-07-17 02:24:14', '0', '0', '[{"sfsSeq": "8", "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "0", "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "10", "sfsDesc": [], "sfsName": {"en": "Disabled toilet available", "ko": "\\uc7a5\\uc560\\uc778 \\ud654\\uc7a5\\uc2e4 \\uc788\\uc74c"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "2", "sfsIconName": "icon_restroom.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "13", "sfsDesc": {"en": "There must be no stairs on the way to the elevator, and the width of the elevator entrance must be at least 32 inches / 81 cm.", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130\\uae4c\\uc9c0 \\uc774\\ub3d9\\ud558\\ub294\\ub370 \\uacc4\\ub2e8\\uc774 \\uc5c6\\uc5b4\\uc57c\\ud558\\uba70, \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130 \\uc785\\uad6c\\uc758 \\uac00\\ub85c \\uae38\\uc774\\uac00 \\ucd5c\\uc18c 32\\uc778\\uce58/81cm\\uc774\\uc5b4\\uc57c \\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Elevator", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "5", "sfsIconName": "icon_elevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "14", "sfsDesc": [], "sfsName": {"en": "Free parking", "ko": "\\uac74\\ubb3c \\ub0b4 \\ubb34\\ub8cc \\uc8fc\\ucc28"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "6", "sfsIconName": "icon_parking.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "15", "sfsDesc": {"en": "The Internet connection is stable", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uc5d0\\uc11c \\uc778\\ud130\\ub137\\uc774 \\ub04a\\uc784\\uc5c6\\uc774 \\uc5f0\\uacb0"}, "sfsName": {"en": "Wifi zone", "ko": "\\ubb34\\uc120 \\uc778\\ud130\\ub137"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "7", "sfsIconName": "icon_wifi.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '둔산동', '대전광역시 서구 둔산북로 22', '35229.0', '', '', '', '19796718.0', '19796718.0', 'True', '사리원 본점', '[{"pk_0": "img_pk_2dda9d970eb7ed2b2d13c66fb0308b8620200717022414_0.jpg"}, {"cid_0": "img_cid_19796718_0.jpg"}, {"pk_1": "img_pk_2dda9d970eb7ed2b2d13c66fb0308b8620200717022414_1.jpg"}, {"cid_1": "img_cid_19796718_1.jpg"}, {"pk_2": "img_pk_2dda9d970eb7ed2b2d13c66fb0308b8620200717022414_2.jpg"}, {"cid_2": "img_cid_19796718_2.jpg"}, {"pk_3": "img_pk_2dda9d970eb7ed2b2d13c66fb0308b8620200717022414_3.jpg"}, {"cid_3": "img_cid_19796718_3.jpg"}]', '19796718.0', 'True', '4.27', '[867]', '사리원 본점', '[{"\\"\\u00ec\\u009d\\u008c\\u00ec\\u008b\\u009d\\u00ec\\u009d\\u00b4 \\u00eb\\u00a7\\u009b\\u00ec\\u009e\\u0088\\u00ec\\u0096\\u00b4\\u00ec\\u009a\\u0094\\"": "400"}, {"\\"\\u00ec\\u00b9\\u009c\\u00ec\\u00a0\\u0088\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "121"}, {"\\"\\u00eb\\u00a7\\u00a4\\u00ec\\u009e\\u00a5\\u00ec\\u009d\\u00b4 \\u00eb\\u0084\\u0093\\u00ec\\u0096\\u00b4\\u00ec\\u009a\\u0094\\"": "97"}, {"\\"\\u00ec\\u009e\\u00ac\\u00eb\\u00a3\\u008c\\u00ea\\u00b0\\u0080 \\u00ec\\u008b\\u00a0\\u00ec\\u0084\\u00a0\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "85"}, {"\\"\\u00eb\\u00a7\\u00a4\\u00ec\\u009e\\u00a5\\u00ec\\u009d\\u00b4 \\u00ec\\u00b2\\u00ad\\u00ea\\u00b2\\u00b0\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "85"}, {"\\"\\u00eb\\u008b\\u00a8\\u00ec\\u00b2\\u00b4\\u00eb\\u00aa\\u00a8\\u00ec\\u009e\\u0084 \\u00ed\\u0095\\u0098\\u00ea\\u00b8\\u00b0 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "70"}, {"\\"\\u00ed\\u008a\\u00b9\\u00eb\\u00b3\\u0084\\u00ed\\u0095\\u009c \\u00eb\\u00a9\\u0094\\u00eb\\u0089\\u00b4\\u00ea\\u00b0\\u0080 \\u00ec\\u009e\\u0088\\u00ec\\u0096\\u00b4\\u00ec\\u009a\\u0094\\"": "46"}, {"\\"\\u00ec\\u0096\\u0091\\u00ec\\u009d\\u00b4 \\u00eb\\u00a7\\u008e\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "38"}, {"\\"\\u00ea\\u00b0\\u0080\\u00ec\\u0084\\u00b1\\u00eb\\u00b9\\u0084\\u00ea\\u00b0\\u0080 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "35"}, {"\\"\\u00ec\\u00a3\\u00bc\\u00ec\\u00b0\\u00a8\\u00ed\\u0095\\u0098\\u00ea\\u00b8\\u00b0 \\u00ed\\u008e\\u00b8\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "29"}, {"\\"\\u00ed\\u0099\\u0094\\u00ec\\u009e\\u00a5\\u00ec\\u008b\\u00a4\\u00ec\\u009d\\u00b4 \\u00ea\\u00b9\\u00a8\\u00eb\\u0081\\u0097\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "27"}, {"\\"\\u00ed\\u008a\\u00b9\\u00eb\\u00b3\\u0084\\u00ed\\u0095\\u009c \\u00eb\\u0082\\u00a0 \\u00ea\\u00b0\\u0080\\u00ea\\u00b8\\u00b0 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "26"}, {"\\"\\u00ec\\u009d\\u00b8\\u00ed\\u0085\\u008c\\u00eb\\u00a6\\u00ac\\u00ec\\u0096\\u00b4\\u00ea\\u00b0\\u0080 \\u00eb\\u00a9\\u008b\\u00ec\\u00a0\\u00b8\\u00ec\\u009a\\u0094\\"": "18"}, {"\\"\\u00eb\\u00b7\\u00b0\\u00ea\\u00b0\\u0080 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "8"}, {"\\"\\u00ed\\u0098\\u00bc\\u00eb\\u00b0\\u00a5\\u00ed\\u0095\\u0098\\u00ea\\u00b8\\u00b0 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "7"}]', '[\'&lt;div class="w9QyJ vI8SM"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;em&gt;영업 중&lt;/em&gt;&lt;span class="U7pYf"&gt;&lt;time aria-hidden="true"&gt;15:30에 브레이크타임&lt;/time&gt;&lt;span class="place_blind"&gt;15시 30분에 브레이크타임&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;매일&lt;/span&gt;&lt;div class="H3ua4"&gt;11:00 - 21:30&lt;br/&gt;15:30 - 16:30 브레이크타임&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ yN6TD"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;div&gt; - 브레이크타임 조정이 있을 수 있으니 가게 연락바람&lt;/div&gt;&lt;/span&gt;&lt;span class="_UCia"&gt;&lt;svg aria-hidden="true" class="DNzQ2" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;접기&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\']', '042-487-4209', '[&lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;정신없이 먹느라 사진을 못찍었는데 진짜 한우 개\n존맛입니다!!!! 갈비도 달지 않구 맛있구요!! 계란찜\n은 1개 다 추가할까말까 엄청 고민했어요 ㅋ...&lt;/span&gt;&lt;span class="rvCSr"&gt;&lt;svg aria-hidden="true" class="Ky28p" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;내용 더보기&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5e6b51728f87a842bc1a06a4/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5e6b51728f87a842bc1a06a4/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;Hola25&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;1.23.월&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 1월 23일 월요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="x0W33"&gt;&lt;a class="place_thumb" href="#" role="button" target="_self"&gt;&lt;img alt="방문자리뷰" class="_img" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f87_87&amp;amp;src=https%3A%2F%2Fpup-review-phinf.pstatic.net%2FMjAyMzAxMjVfMTU1%2FMDAxNjc0NjEwNjI1NDA3.8z761oZADIazGF57fdxTD9-5RdbbP-rwHg4Qgt5bV0Ig.EklidTqPsAUdgq8LkfO0A7pBinoeVpv3KwAblsUXjswg.JPEG%2F19A89C0F-125A-45B9-9F61-398091C4BD14.jpeg"/&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;숯불갈비먹었는데 맛있네요 냉면도 평</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>['185', '185', '5fbe81c9437a51692ab26ac1e6026eb520210309102150', 'mid', '4.0', '다이소 용문점', 'category7', '7', '', '36.339436800441', '127.39130755452', '35300', '대전광역시 서구 계룡로 622', '', '', "{'openDays': ['mon', 'tue', 'wed', 'thu', 'fri', 'sat', 'sun'], 'openTime': '10:00', 'closeTime': '22:00'}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '0425376019', '', 'Y', '0', 'tpghd8794@gmail.com', 'kakaotalk', '2021-03-09 10:21:50', '0', '0', '[{"sfsSeq": "8", "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "0", "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "9", "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "1", "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "11", "sfsDesc": [], "sfsName": {"en": "Pet helpers allowed", "ko": "\\uc560\\uc644\\uacac/\\ub3c4\\uc6b0\\ubbf8\\uacac \\ucd9c\\uc785\\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "3", "sfsIconName": "icon_pet.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "14", "sfsDesc": [], "sfsName": {"en": "Free parking", "ko": "\\uac74\\ubb3c \\ub0b4 \\ubb34\\ub8cc \\uc8fc\\ucc28 \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "6", "sfsIconName": "icon_parking.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "16", "sfsDesc": [], "sfsName": {"en": "Suitable for family / children", "ko": "\\uac00\\uc871/\\uc5b4\\ub9b0\\uc774 \\uc774\\uc6a9\\uc5d0 \\uc801\\ud569"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "8", "sfsIconName": "icon_people.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '용문동', '대전광역시 서구 계룡로 622', '35300.0', '', '', '', '13393098.0', '13393098.0', 'True', '다이소 대전용문점', '[{"pk_0": "img_pk_5fbe81c9437a51692ab26ac1e6026eb520210309102150_0.jpg"}, {"cid_0": "img_cid_13393098_0.jpg"}, {"pk_1": "img_pk_5fbe81c9437a51692ab26ac1e6026eb520210309102150_1.jpg"}, {"cid_1": "img_cid_13393098_1.jpg"}]', '', '', '', '', '', '', '[\'&lt;div class="w9QyJ vI8SM"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;em&gt;영업 중&lt;/em&gt;&lt;span class="U7pYf"&gt;&lt;time aria-hidden="true"&gt;22:00에 영업 종료&lt;/time&gt;&lt;span class="place_blind"&gt;22시 0분에 영업 종료&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;매일&lt;/span&gt;&lt;div class="H3ua4"&gt;10:00 - 22:00&lt;/div&gt;&lt;/span&gt;&lt;span class="_UCia"&gt;&lt;svg aria-hidden="true" class="DNzQ2" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;접기&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\']', '042-537-6019', '[]', '[]', '[]']</t>
+          <t>['185', '185', '5fbe81c9437a51692ab26ac1e6026eb520210309102150', 'mid', '4.0', '다이소 용문점', 'category7', '7', '', '36.339436800441', '127.39130755452', '35300', '대전광역시 서구 계룡로 622', '', '', "{'openDays': ['mon', 'tue', 'wed', 'thu', 'fri', 'sat', 'sun'], 'openTime': '10:00', 'closeTime': '22:00'}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '0425376019', '', 'Y', '0', 'tpghd8794@gmail.com', 'kakaotalk', '2021-03-09 10:21:50', '0', '0', '[{"sfsSeq": "8", "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "0", "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "9", "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "1", "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "11", "sfsDesc": [], "sfsName": {"en": "Pet helpers allowed", "ko": "\\uc560\\uc644\\uacac/\\ub3c4\\uc6b0\\ubbf8\\uacac \\ucd9c\\uc785\\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "3", "sfsIconName": "icon_pet.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "14", "sfsDesc": [], "sfsName": {"en": "Free parking", "ko": "\\uac74\\ubb3c \\ub0b4 \\ubb34\\ub8cc \\uc8fc\\ucc28 \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "6", "sfsIconName": "icon_parking.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": "16", "sfsDesc": [], "sfsName": {"en": "Suitable for family / children", "ko": "\\uac00\\uc871/\\uc5b4\\ub9b0\\uc774 \\uc774\\uc6a9\\uc5d0 \\uc801\\ud569"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": "8", "sfsIconName": "icon_people.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '용문동', '대전광역시 서구 계룡로 622', '35300.0', '', '', '', '13393098.0', '13393098.0', 'True', '다이소 대전용문점', '[{"pk_0": "img_pk_5fbe81c9437a51692ab26ac1e6026eb520210309102150_0.jpg"}, {"cid_0": "img_cid_13393098_0.jpg"}, {"pk_1": "img_pk_5fbe81c9437a51692ab26ac1e6026eb520210309102150_1.jpg"}, {"cid_1": "img_cid_13393098_1.jpg"}]', '', '', '', '', '', '', '[\'&lt;div class="w9QyJ vI8SM"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;em&gt;영업 중&lt;/em&gt;&lt;span class="U7pYf"&gt;&lt;time aria-hidden="true"&gt;22:00에 영업 종료&lt;/time&gt;&lt;span class="place_blind"&gt;22시 0분에 영업 종료&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;매일</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>['201', '201', '507dc0c38a86f0eebe1660c61f3a82c320191109031200', 'mid', '4.0', '우리집 김밥', 'category1', '0', '1.0', '36.34268737387', '127.38386497076', '', '대전 서구 계룡로 544', '둔산부동산중개인사무소', '8949078', "{'openDays': '', 'openTime': '', 'closeTime': ''}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '042-525-3131', '', 'Y', '9', 'prinm@hanmail.net', 'kakaotalk', '2019-11-09 03:12:00', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 9, "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 1, "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '괴정동', '대전광역시 서구 계룡로 542', '35268.0', '', '', '', '37936144.0', '37936144.0', 'True', '우리집김밥', '[{"pk_0": "img_pk_507dc0c38a86f0eebe1660c61f3a82c320191109031200_0.jpg"}, {"cid_0": "img_cid_37936144_0.jpg"}]', '37936144.0', 'True', '4.4', '[57]', '우리집김밥', '[{"\\"\\u00ec\\u009d\\u008c\\u00ec\\u008b\\u009d\\u00ec\\u009d\\u00b4 \\u00eb\\u00a7\\u009b\\u00ec\\u009e\\u0088\\u00ec\\u0096\\u00b4\\u00ec\\u009a\\u0094\\"": "38"}, {"\\"\\u00ec\\u009e\\u00ac\\u00eb\\u00a3\\u008c\\u00ea\\u00b0\\u0080 \\u00ec\\u008b\\u00a0\\u00ec\\u0084\\u00a0\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "16"}, {"\\"\\u00ec\\u00b9\\u009c\\u00ec\\u00a0\\u0088\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "14"}, {"\\"\\u00ed\\u0098\\u00bc\\u00eb\\u00b0\\u00a5\\u00ed\\u0095\\u0098\\u00ea\\u00b8\\u00b0 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "10"}, {"\\"\\u00ea\\u00b0\\u0080\\u00ec\\u0084\\u00b1\\u00eb\\u00b9\\u0084\\u00ea\\u00b0\\u0080 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "4"}, {"\\"\\u00ed\\u008a\\u00b9\\u00eb\\u00b3\\u0084\\u00ed\\u0095\\u009c \\u00eb\\u00a9\\u0094\\u00eb\\u0089\\u00b4\\u00ea\\u00b0\\u0080 \\u00ec\\u009e\\u0088\\u00ec\\u0096\\u00b4\\u00ec\\u009a\\u0094\\"": "4"}, {"\\"\\u00ec\\u0096\\u0091\\u00ec\\u009d\\u00b4 \\u00eb\\u00a7\\u008e\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "3"}, {"\\"\\u00eb\\u00a7\\u00a4\\u00ec\\u009e\\u00a5\\u00ec\\u009d\\u00b4 \\u00ec\\u00b2\\u00ad\\u00ea\\u00b2\\u00b0\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "3"}, {"\\"\\u00ed\\u008a\\u00b9\\u00eb\\u00b3\\u0084\\u00ed\\u0095\\u009c \\u00eb\\u0082\\u00a0 \\u00ea\\u00b0\\u0080\\u00ea\\u00b8\\u00b0 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "1"}, {"\\"\\u00ed\\u0099\\u0094\\u00ec\\u009e\\u00a5\\u00ec\\u008b\\u00a4\\u00ec\\u009d\\u00b4 \\u00ea\\u00b9\\u00a8\\u00eb\\u0081\\u0097\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "1"}, {"\\"\\u00eb\\u00b7\\u00b0\\u00ea\\u00b0\\u0080 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "1"}]', '[\'&lt;div class="w9QyJ vI8SM"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;em&gt;영업 중&lt;/em&gt;&lt;span class="U7pYf"&gt;&lt;time aria-hidden="true"&gt;20:00에 영업 종료&lt;/time&gt;&lt;span class="place_blind"&gt;20시 0분에 영업 종료&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;월&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 20:00&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;화&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 20:00&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;수&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 20:00&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;목&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 20:00&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;금&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 20:00&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;토&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 20:00&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;일&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 11:00&lt;/div&gt;&lt;/span&gt;&lt;span class="_UCia"&gt;&lt;svg aria-hidden="true" class="DNzQ2" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;접기&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\']', '042-525-3131', '[&lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;제가 김밥을 진짜진짜 좋아하는데… 지금까지 가\n본 그 어떤 김밥집 중에 최고에요ㅠㅠㅠㅠ 이런 곳\n이 동네에 있어서 감사할 따름입니다😭 왜 ...&lt;/span&gt;&lt;span class="rvCSr"&gt;&lt;svg aria-hidden="true" class="Ky28p" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;내용 더보기&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5efe35b9afcca6e20afd0c9a/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5efe35b9afcca6e20afd0c9a/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;다라미11&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;1.8.일&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 1월 8일 일요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="x0W33"&gt;&lt;a class="place_thumb" href="#" role="button" target="_self"&gt;&lt;img alt="방문자리뷰" class="_img" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f87_87&amp;amp;src=https%3A%2F%2Fpup-review-phinf.pstatic.net%2FMjAyMzAxMDhfMTAz%2FMDAxNjczMTQ4MjkzNDA5.uUjKe56ENBXDJgdPJEdpjYgGK8jAWS2szppL4pqzyBIg.vwTeSwR6hdIIo-SCzy8iTtkj_Y_ocAdQ-sNUWZ6tiQcg.JPEG%2FDF3A8783-6D20-4D70-BC85-CE7D47F9FECB.jpeg"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;3&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;봄소풍엔 역시 우리집김밥🌸 내 최애김밥집 👍 \n행복해지는 맛임❤️ 매장에서 사와서 통에담고 깨\n소금만 뿌려봄 사장님 진짜 친절하시고 손...&lt;/span&gt;&lt;span class="rvCSr"&gt;&lt;svg aria-hidden="true" class="Ky28p" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;내용 더보기&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5de9035f9ec8258e4ab262b7/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=w250&amp;amp;src=https%3A%2F%2Fmyplace-phinf.pstatic.net%2F20220622_243%2F1655890473103zk3DD_JPEG%2F43D59E25-1926-413F-98CE-856C6229127B.jpeg" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5de9035f9ec8258e4ab262b7/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;닭똥향기로와&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;3.11.토&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 11일 토요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;5번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;카드결제&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="x0W33"&gt;&lt;a class="place_thumb" href="#" role="button" target="_self"&gt;&lt;img alt="방문자리뷰" class="_img" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f87_87&amp;amp;src=https%3A%2F%2Fpup-review-phinf.pstatic.net%2FMjAyMzAzMTFfOTQg%2FMDAxNjc4NDk2MDE1ODg2.JGHxHHGiy_q6XmQvqJoIyY5Ah1rAdMY8cGi4T2LRf0gg.CmJTluuZdJeNu5uU67W3TJ3Qy-OOd8p3qRoydhfwjqog.JPEG%2F981F0EC5-A612-4B85-9980-2F3E38320732.jpeg"/&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;최애 참치김밥맛집❤️\n가끔 생각나서 사먹으로 가요\n참치김밥 강추입니다&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5dc0923a8f87a842bc435c54/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=w250&amp;amp;src=https%3A%2F%2Fphinf.pstatic.net%2Fcontact%2F20201208_207%2F16074218347316BqD0_PNG%2Favatar_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5dc0923a8f87a842bc435c54/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;Min0817&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;3.7.화&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 7일 화요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;카드결제&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="x0W33"&gt;&lt;a class="place_thumb" href="#" role="button" target="_self"&gt;&lt;img alt="방문자리뷰" class="_img" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f87_87&amp;amp;src=https%3A%2F%2Fpup-review-phinf.pstatic.net%2FMjAyMzAzMTJfMzgg%2FMDAxNjc4NjA0NTI3MjA4.kjczvy1uMb8wED6NBh7OpmJxo4sht1Zg763OFVX_-XQg.J3Mpgf1YcKDozkfEMiWHtKaDxfl3vlIsrFejffUo94Ig.JPEG%2F20230308_174810.jpg"/&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;]', '[]', '[&lt;li class="gHmZ_"&gt;&lt;div class="yFDCH"&gt;&lt;div class="RhpMT"&gt;&lt;span class="vEsKn"&gt;&lt;a class="place_bluelink ihmWt" href="/restaurant/37936144/menu/37936144_0" role="button"&gt;우리집김밥&lt;/a&gt;&lt;/span&gt;&lt;div class="JRYkP"&gt;&lt;/div&gt;&lt;/div&gt;&lt;em class="awlpp"&gt;3,000원&lt;/em&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="gHmZ_"&gt;&lt;div class="yFDCH"&gt;&lt;div class="RhpMT"&gt;&lt;span class="vEsKn"&gt;&lt;a class="place_bluelink ihmWt" href="/restaurant/37936144/menu/37936144_1" role="button"&gt;참치김밥&lt;/a&gt;&lt;/span&gt;&lt;div class="JRYkP"&gt;&lt;/div&gt;&lt;/div&gt;&lt;em class="awlpp"&gt;4,000원&lt;/em&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="gHmZ_"&gt;&lt;div class="yFDCH"&gt;&lt;div class="RhpMT"&gt;&lt;span class="vEsKn"&gt;&lt;a class="place_bluelink ihmWt" href="/restaurant/37936144/menu/37936144_2" role="button"&gt;치즈김밥&lt;/a&gt;&lt;/span&gt;&lt;div class="JRYkP"&gt;&lt;/div&gt;&lt;/div&gt;&lt;em class="awlpp"&gt;4,000원&lt;/em&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="gHmZ_"&gt;&lt;div class="yFDCH"&gt;&lt;div class="RhpMT"&gt;&lt;span class="vEsKn"&gt;&lt;a class="place_bluelink ihmWt" href="/restaurant/37936144/menu/37936144_3" role="button"&gt;소고기김밥&lt;/a&gt;&lt;/span&gt;&lt;div class="JRYkP"&gt;&lt;/div&gt;&lt;/div&gt;&lt;em class="awlpp"&gt;4,000원&lt;/em&gt;&lt;/div&gt;&lt;/li&gt;]']</t>
+          <t>['201', '201', '507dc0c38a86f0eebe1660c61f3a82c320191109031200', 'mid', '4.0', '우리집 김밥', 'category1', '0', '1.0', '36.34268737387', '127.38386497076', '', '대전 서구 계룡로 544', '둔산부동산중개인사무소', '8949078', "{'openDays': '', 'openTime': '', 'closeTime': ''}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '042-525-3131', '', 'Y', '9', 'prinm@hanmail.net', 'kakaotalk', '2019-11-09 03:12:00', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 9, "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 1, "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '괴정동', '대전광역시 서구 계룡로 542', '35268.0', '', '', '', '37936144.0', '37936144.0', 'True', '우리집김밥', '[{"pk_0": "img_pk_507dc0c38a86f0eebe1660c61f3a82c320191109031200_0.jpg"}, {"cid_0": "img_cid_37936144_0.jpg"}]', '37936144.0', 'True', '4.4', '[57]', '우리집김밥', '[{"\\"\\u00ec\\u009d\\u008c\\u00ec\\u008b\\u009d\\u00ec\\u009d\\u00b4 \\u00eb\\u00a7\\u009b\\u00ec\\u009e\\u0088\\u00ec\\u0096\\u00b4\\u00ec\\u009a\\u0094\\"": "38"}, {"\\"\\u00ec\\u009e\\u00ac\\u00eb\\u00a3\\u008c\\u00ea\\u00b0\\u0080 \\u00ec\\u008b\\u00a0\\u00ec\\u0084\\u00a0\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "16"}, {"\\"\\u00ec\\u00b9\\u009c\\u00ec\\u00a0\\u0088\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "14"}, {"\\"\\u00ed\\u0098\\u00bc\\u00eb\\u00b0\\u00a5\\u00ed\\u0095\\u0098\\u00ea\\u00b8\\u00b0 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "10"}, {"\\"\\u00ea\\u00b0\\u0080\\u00ec\\u0084\\u00b1\\u00eb\\u00b9\\u0084\\u00ea\\u00b0\\u0080 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "4"}, {"\\"\\u00ed\\u008a\\u00b9\\u00eb\\u00b3\\u0084\\u00ed\\u0095\\u009c \\u00eb\\u00a9\\u0094\\u00eb\\u0089\\u00b4\\u00ea\\u00b0\\u0080 \\u00ec\\u009e\\u0088\\u00ec\\u0096\\u00b4\\u00ec\\u009a\\u0094\\"": "4"}, {"\\"\\u00ec\\u0096\\u0091\\u00ec\\u009d\\u00b4 \\u00eb\\u00a7\\u008e\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "3"}, {"\\"\\u00eb\\u00a7\\u00a4\\u00ec\\u009e\\u00a5\\u00ec\\u009d\\u00b4 \\u00ec\\u00b2\\u00ad\\u00ea\\u00b2\\u00b0\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "3"}, {"\\"\\u00ed\\u008a\\u00b9\\u00eb\\u00b3\\u0084\\u00ed\\u0095\\u009c \\u00eb\\u0082\\u00a0 \\u00ea\\u00b0\\u0080\\u00ea\\u00b8\\u00b0 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "1"}, {"\\"\\u00ed\\u0099\\u0094\\u00ec\\u009e\\u00a5\\u00ec\\u008b\\u00a4\\u00ec\\u009d\\u00b4 \\u00ea\\u00b9\\u00a8\\u00eb\\u0081\\u0097\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "1"}, {"\\"\\u00eb\\u00b7\\u00b0\\u00ea\\u00b0\\u0080 \\u00ec\\u00a2\\u008b\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "1"}]', '[\'&lt;div class="w9QyJ vI8SM"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;em&gt;영업 중&lt;/em&gt;&lt;span class="U7pYf"&gt;&lt;time aria-hidden="true"&gt;20:00에 영업 종료&lt;/time&gt;&lt;span class="place_blind"&gt;20시 0분에 영업 종료&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;월&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 20:00&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;화&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 20:00&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;수&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 20:00&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;목&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 20:00&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;금&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 20:00&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;토&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 20:00&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;일&lt;/span&gt;&lt;div class="H3ua4"&gt;06:30 - 11:00&lt;/div&gt;&lt;/span&gt;&lt;span class="_UCia"&gt;&lt;svg aria-hidden="true" class="DNzQ2" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;접기&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\']', '042-525-3131', '[&lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;제가 김밥을 진짜진짜 좋아하는데… 지금까지 가\n본 그 어떤 김밥집 중에 최고에요ㅠㅠㅠㅠ 이런 곳\n이 동네에 있어서 감사할 따름입니다😭 왜 ...&lt;/span&gt;&lt;span class="rvCSr"&gt;&lt;svg aria-hidden="true" class="Ky28p" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;내용 더보기&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5efe35b9afcca6e20afd0c9a/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5efe35b9afcca6e20afd0c9a/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;다라미11&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;1.8.일&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 1월 8일 일요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="x0W33"&gt;&lt;a class="place_thumb" href="#" role="button" target="_self"&gt;&lt;img alt="방문자리뷰" class="_img" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f87_87&amp;amp;src=https%3A%2F%2Fpup-review-phinf.pstatic.net%2FMjAyMzAxMDhfMTAz%2FMDAxNjczMTQ4MjkzNDA5.uUjKe56ENBXDJgdPJEdpjYgGK8jAWS2szppL4pqzyBIg.vwTeSwR6hdIIo-SCzy8iTtkj_Y_ocAdQ-sNUWZ6tiQcg.JPEG%2FDF3A8783-6D20-4D70-BC85-CE7D47F9FECB.jpeg"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;3&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;봄소풍엔 역시 우리집김밥🌸 내 최애김밥집 👍 \n행복해지는 맛임❤️ 매장에서 사와서 통에담고 깨\n소금만 뿌려봄 사장님 진짜 친절하시고 손...&lt;/span&gt;&lt;span class="rvCSr"&gt;&lt;svg aria-hidden="true" class="Ky28p" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;내용 더보기&lt;/span&gt;&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5de9035f9ec8258e4ab262b7/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=w250&amp;amp;src=https%3A%2F%2Fmyplace-phinf.pstatic.net%2F20220622_243%2F1655890473103zk3DD_JPEG%2F43D59E25-1926-413F-98CE-856C6229127B.jpeg" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5de9035f9ec8258e4ab262b7/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;닭똥향기로와&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>['203', '203', '5924f74cb27827e2f75b999d768971e520190130205628', 'mid', '4.0', 'lg전자', 'category7', '7', '', '36.298882443236', '127.32439619381', '', '대전 서구 계백로 896', 'LG전자베스트샵 관저점', '8034998', "{'openDays': '', 'openTime': '', 'closeTime': ''}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '', '', 'Y', '0', 'tonayeon@naver.com', 'kakaotalk', '2019-01-30 20:56:28', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 9, "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 1, "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 13, "sfsDesc": {"en": "There must be no stairs on the way to the elevator, and the width of the elevator entrance must be at least 32 inches / 81 cm.", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130\\uae4c\\uc9c0 \\uc774\\ub3d9\\ud558\\ub294\\ub370 \\uacc4\\ub2e8\\uc774 \\uc5c6\\uc5b4\\uc57c\\ud558\\uba70, \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130 \\uc785\\uad6c\\uc758 \\uac00\\ub85c \\uae38\\uc774\\uac00 \\ucd5c\\uc18c 32\\uc778\\uce58/81cm\\uc774\\uc5b4\\uc57c \\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Elevator", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 5, "sfsIconName": "icon_elevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '관저동', '대전광역시 서구 계백로 896', '35371.0', '', '', '', '11765072.0', '11765072.0', 'True', 'LG전자 베스트샵 관저점', '[]', '11765072.0', 'True', '4.41', '[106]', 'LG전자 베스트샵 관저점', '[{"\\"\\u00ec\\u00b9\\u009c\\u00ec\\u00a0\\u0088\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "27"}, {"\\"\\u00ec\\u0083\\u0081\\u00ed\\u0092\\u0088\\u00ec\\u009d\\u00b4 \\u00eb\\u008b\\u00a4\\u00ec\\u0096\\u0091\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "15"}, {"\\"\\u00ec\\u0084\\u00a4\\u00eb\\u00aa\\u0085\\u00ec\\u009d\\u00b4 \\u00ec\\u009e\\u0090\\u00ec\\u0084\\u00b8\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "9"}, {"\\"\\u00eb\\u00a7\\u00a4\\u00ec\\u009e\\u00a5\\u00ec\\u009d\\u00b4 \\u00eb\\u0084\\u0093\\u00ec\\u0096\\u00b4\\u00ec\\u009a\\u0094\\"": "9"}, {"\\"\\u00ec\\u00a3\\u00bc\\u00ec\\u00b0\\u00a8\\u00ed\\u0095\\u0098\\u00ea\\u00b8\\u00b0 \\u00ed\\u008e\\u00b8\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "8"}, {"\\"\\u00eb\\u00b0\\u00b0\\u00ec\\u0086\\u00a1\\u00ec\\u009d\\u00b4 \\u00eb\\u00b9\\u00a8\\u00eb\\u009d\\u00bc\\u00ec\\u009a\\u0094\\"": "6"}, {"\\"\\u00ea\\u00b0\\u0080\\u00ea\\u00b2\\u00a9\\u00ec\\u009d\\u00b4 \\u00ed\\u0095\\u00a9\\u00eb\\u00a6\\u00ac\\u00ec\\u00a0\\u0081\\u00ec\\u009d\\u00b4\\u00ec\\u0097\\u0090\\u00ec\\u009a\\u0094\\"": "5"}, {"\\"\\u00ec\\u008b\\u00a0\\u00ec\\u0083\\u0081\\u00ed\\u0092\\u0088\\u00ec\\u009d\\u00b4 \\u00eb\\u00a7\\u008e\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "5"}]', '[\'&lt;div class="w9QyJ vI8SM"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;em&gt;영업 중&lt;/em&gt;&lt;span class="U7pYf"&gt;&lt;time aria-hidden="true"&gt;20:30에 영업 종료&lt;/time&gt;&lt;span class="place_blind"&gt;20시 30분에 영업 종료&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;월&lt;/span&gt;&lt;div class="H3ua4"&gt;10:30 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;화&lt;/span&gt;&lt;div class="H3ua4"&gt;10:30 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;수&lt;/span&gt;&lt;div class="H3ua4"&gt;10:30 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;목&lt;/span&gt;&lt;div class="H3ua4"&gt;10:30 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;금&lt;/span&gt;&lt;div class="H3ua4"&gt;10:30 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;토&lt;/span&gt;&lt;div class="H3ua4"&gt;10:30 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;일&lt;/span&gt;&lt;div class="H3ua4"&gt;11:00 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;span class="_UCia"&gt;&lt;svg aria-hidden="true" class="DNzQ2" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;접기&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\']', '042-542-8787', '[]', '[]', '[&lt;li class="S99DR"&gt;&lt;a class="QJBnP" href="https://m.blog.naver.com/lg-bestshop/223049965867" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="단 3일간! LG 디오스 오브제컬렉션 식기세척기 주중 특가 이벤트" height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f160_160&amp;amp;src=http%3A%2F%2Fblogthumb2.naver.net%2FMjAyMzAzMjBfMjg1%2FMDAxNjc5Mjg4MDk1OTc4.g5-mSoMKGWxk9uAz2fp1QiOsN749odr8SEuuCbQ1Uhsg.WWFF3HGt4_bA9hSxvmI8fQ9cBBtN35yo5hL6FXY_YGcg.PNG.lg-bestshop%2F230320_LG%25C0%25FC%25C0%25DA_%25BA%25A3%25BD%25BA%25C6%25AE%25BC%25A5_%25BD%25C4%25B1%25E2%25BC%25BC%25C3%25B4%25B1%25E2_%25C1%25D6%25C1%25DF_%25C8%25B0%25BC%25BA%25C8%25AD_%25C0%25CC%25BA%25A5%25C6%25AE_%25BC%25F6%25C1%25A4_1.png" width="100%"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;div class="wUsbY"&gt;&lt;div class="iMrYJ"&gt;&lt;a class="GLcps" href="https://m.blog.naver.com/lg-bestshop/223049965867" role="button" target="_blank"&gt;&lt;span class="place_bluelink"&gt;단 3일간! LG 디오스 오브제컬렉션 식기세척기 주중 특가 이벤트&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="NzPdp"&gt;&lt;time aria-hidden="true"&gt;2023.03.20&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 20일&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="S99DR"&gt;&lt;a class="QJBnP" href="https://m.blog.naver.com/lg-bestshop/223047544333" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="3월의 백화점 웨딩 박람회 소식 알려드려요! LG전자 베스트샵 백화점 연합 웨딩 박람회" height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f160_160&amp;amp;src=http%3A%2F%2Fblogthumb2.naver.net%2FMjAyMzAzMTdfOTMg%2FMDAxNjc5MDM2NTI0NjU3.HNGJEufXdffG_9v3xAbQaTTEY2EXHp_5Ut_X1e7tvKMg.I7wpMndm3PGaYMHJU-2N6P7bgJd7ASaHOVviSTjmHcsg.PNG.lg-bestshop%2F230315_LG%25C0%25FC%25C0%25DA_%25BA%25A3%25BD%25BA%25C6%25AE%25BC%25A5_3%25BF%25F9_%25B9%25E9%25C8%25AD%25C1%25A1_%25BF%25FE%25B5%25F9%25B9%25DA%25B6%25F7%25C8%25B8_34%25C1%25D6%25C2%25F7_%25280%2529.png" width="100%"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;div class="wUsbY"&gt;&lt;div class="iMrYJ"&gt;&lt;a class="GLcps" href="https://m.blog.naver.com/lg-bestshop/223047544333" role="button" target="_blank"&gt;&lt;span class="place_bluelink"&gt;3월의 백화점 웨딩 박람회 소식 알려드려요! LG전자 베스트샵 백화점 연합 웨딩 박람회&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="NzPdp"&gt;&lt;time aria-hidden="true"&gt;2023.03.17&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 17일&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="S99DR"&gt;&lt;a class="QJBnP" href="https://m.blog.naver.com/lg-bestshop/223047509130" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="우리 집에 꼭 맞는 가전, 네이버 예약하고 혜택과 함께 마련해요!" height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f160_160&amp;amp;src=http%3A%2F%2Fblogthumb2.naver.net%2FMjAyMzAzMTdfMjY0%2FMDAxNjc5MDM2MTYzNDYx.O4Mtm1eAqDX6j2K_6Jibufc0_qHydaWPzWLBvzp-eCUg.vxBJz4kf5Y9E35rnOtfY79elOdCQ3rBGiI5qZ6tqiOQg.PNG.lg-bestshop%2F1.png" width="100%"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;div class="wUsbY"&gt;&lt;div class="iMrYJ"&gt;&lt;a class="GLcps" href="https://m.blog.naver.com/lg-bestshop/223047509130" role="button" target="_blank"&gt;&lt;span class="place_bluelink"&gt;우리 집에 꼭 맞는 가전, 네이버 예약하고 혜택과 함께 마련해요!&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="NzPdp"&gt;&lt;time aria-hidden="true"&gt;2023.03.17&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 17일&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;]']</t>
+          <t>['203', '203', '5924f74cb27827e2f75b999d768971e520190130205628', 'mid', '4.0', 'lg전자', 'category7', '7', '', '36.298882443236', '127.32439619381', '', '대전 서구 계백로 896', 'LG전자베스트샵 관저점', '8034998', "{'openDays': '', 'openTime': '', 'closeTime': ''}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '', '', 'Y', '0', 'tonayeon@naver.com', 'kakaotalk', '2019-01-30 20:56:28', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 9, "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 1, "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 13, "sfsDesc": {"en": "There must be no stairs on the way to the elevator, and the width of the elevator entrance must be at least 32 inches / 81 cm.", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130\\uae4c\\uc9c0 \\uc774\\ub3d9\\ud558\\ub294\\ub370 \\uacc4\\ub2e8\\uc774 \\uc5c6\\uc5b4\\uc57c\\ud558\\uba70, \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130 \\uc785\\uad6c\\uc758 \\uac00\\ub85c \\uae38\\uc774\\uac00 \\ucd5c\\uc18c 32\\uc778\\uce58/81cm\\uc774\\uc5b4\\uc57c \\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Elevator", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 5, "sfsIconName": "icon_elevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '관저동', '대전광역시 서구 계백로 896', '35371.0', '', '', '', '11765072.0', '11765072.0', 'True', 'LG전자 베스트샵 관저점', '[]', '11765072.0', 'True', '4.41', '[106]', 'LG전자 베스트샵 관저점', '[{"\\"\\u00ec\\u00b9\\u009c\\u00ec\\u00a0\\u0088\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "27"}, {"\\"\\u00ec\\u0083\\u0081\\u00ed\\u0092\\u0088\\u00ec\\u009d\\u00b4 \\u00eb\\u008b\\u00a4\\u00ec\\u0096\\u0091\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "15"}, {"\\"\\u00ec\\u0084\\u00a4\\u00eb\\u00aa\\u0085\\u00ec\\u009d\\u00b4 \\u00ec\\u009e\\u0090\\u00ec\\u0084\\u00b8\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "9"}, {"\\"\\u00eb\\u00a7\\u00a4\\u00ec\\u009e\\u00a5\\u00ec\\u009d\\u00b4 \\u00eb\\u0084\\u0093\\u00ec\\u0096\\u00b4\\u00ec\\u009a\\u0094\\"": "9"}, {"\\"\\u00ec\\u00a3\\u00bc\\u00ec\\u00b0\\u00a8\\u00ed\\u0095\\u0098\\u00ea\\u00b8\\u00b0 \\u00ed\\u008e\\u00b8\\u00ed\\u0095\\u00b4\\u00ec\\u009a\\u0094\\"": "8"}, {"\\"\\u00eb\\u00b0\\u00b0\\u00ec\\u0086\\u00a1\\u00ec\\u009d\\u00b4 \\u00eb\\u00b9\\u00a8\\u00eb\\u009d\\u00bc\\u00ec\\u009a\\u0094\\"": "6"}, {"\\"\\u00ea\\u00b0\\u0080\\u00ea\\u00b2\\u00a9\\u00ec\\u009d\\u00b4 \\u00ed\\u0095\\u00a9\\u00eb\\u00a6\\u00ac\\u00ec\\u00a0\\u0081\\u00ec\\u009d\\u00b4\\u00ec\\u0097\\u0090\\u00ec\\u009a\\u0094\\"": "5"}, {"\\"\\u00ec\\u008b\\u00a0\\u00ec\\u0083\\u0081\\u00ed\\u0092\\u0088\\u00ec\\u009d\\u00b4 \\u00eb\\u00a7\\u008e\\u00ec\\u0095\\u0084\\u00ec\\u009a\\u0094\\"": "5"}]', '[\'&lt;div class="w9QyJ vI8SM"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;em&gt;영업 중&lt;/em&gt;&lt;span class="U7pYf"&gt;&lt;time aria-hidden="true"&gt;20:30에 영업 종료&lt;/time&gt;&lt;span class="place_blind"&gt;20시 30분에 영업 종료&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;월&lt;/span&gt;&lt;div class="H3ua4"&gt;10:30 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;화&lt;/span&gt;&lt;div class="H3ua4"&gt;10:30 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;수&lt;/span&gt;&lt;div class="H3ua4"&gt;10:30 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;목&lt;/span&gt;&lt;div class="H3ua4"&gt;10:30 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;금&lt;/span&gt;&lt;div class="H3ua4"&gt;10:30 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;토&lt;/span&gt;&lt;div class="H3ua4"&gt;10:30 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;span class="i8cJw"&gt;일&lt;/span&gt;&lt;div class="H3ua4"&gt;11:00 - 20:30&lt;/div&gt;&lt;/span&gt;&lt;span class="_UCia"&gt;&lt;svg aria-hidden="true" class="DNzQ2" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;접기&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\']', '042-542-8787', '[]', '[]', '[&lt;li class="S99DR"&gt;&lt;a class="QJBnP" href="https://m.blog.naver.com/lg-bestshop/223049965867" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="단 3일간! LG 디오스 오브제컬렉션 식기세척기 주중 특가 이벤트" height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f160_160&amp;amp;src=http%3A%2F%2Fblogthumb2.naver.net%2FMjAyMzAzMjBfMjg1%2FMDAxNjc5Mjg4MDk1OTc4.g5-mSoMKGWxk9uAz2fp1QiOsN749odr8SEuuCbQ1Uhsg.WWFF3HGt4_bA9hSxvmI8fQ9cBBtN35yo5hL6FXY_YGcg.PNG.lg-bestshop%2F230320_LG%25C0%25FC%25C0%25DA_%25BA%25A3%25BD%25BA%25C6%25AE%25BC%25A5_%25BD%25C4%25B1%25E2%25BC%25BC%25C3%25B4%25B1%25E2_%25C1%25D6%25C1%25DF_%25C8%25B0%25BC%25BA%25C8%25AD_%25C0%25CC%25BA%25A5%25C6%25AE_%25BC%25F6%25C1%25A4_1.png" width="100%"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;div class="wUsbY"&gt;&lt;div class="iMrYJ"&gt;&lt;a class="GLcps" href="https://m.blog.naver.com/lg-bestshop/223049965867" role="button" target="_blank"&gt;&lt;span class="place_bluelink"&gt;단 3일간! LG 디오스 오브제컬렉션 식기세척기 주중 특가 이벤트&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="NzPdp"&gt;&lt;time aria-hidden="true"&gt;2023.03.20&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 20일&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="S99DR"&gt;&lt;a class="QJBnP" href="https://m.blog.naver.com/lg-bestshop/223047544333" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="3월의 백화점 웨딩 박람회 소식 알려드려요! LG전자 베스트샵 백화점 연합 웨딩 박람회" height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f160_160&amp;amp;src=http%3A%2F%2Fblogthumb2.naver.net%2FMjAyMzAzMTdfOTMg%2FMDAxNjc5MDM2NTI0NjU3.HNGJEufXdffG_9v3xAbQaTTEY2EXHp_5Ut_X1e7tvKMg.I7wpMndm3PGaYMHJU-2N6P7bgJd7ASaHOVviSTjmHcsg.PNG.lg-bestshop%2F230315_LG%25C0%25FC%25C0%25DA_%25BA%25A3%25BD%25BA%25C6%25AE%25BC%25A5_3%25BF%25F9_%25B9%25E9%25C8%25AD%25C1%25A1_%25BF%25FE%25B5%25F9%25B9%25DA%25B6%25F7%25C8%25B8_34%25C1%25D6%25C2%25F7_%25280%2529.png" width="100%"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;div class="wUsbY"&gt;&lt;div class="iMrYJ"&gt;&lt;a class="GLcps" href="https://m.blog.naver.com/lg-bestshop/223047544333" role="button" target="_blank"&gt;&lt;span class="place_bluelink"&gt;3월의 백화점 웨딩 박람회 소식 알려드</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>['212', '212', 'b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116', 'mid', '4.0', '관평도서관', 'category3', '3', '2.0', '36.423212126286', '127.38839326484', '', '대전 유성구 테크노4로 131', '관평도서관', '27306960', "{'openDays': '', 'openTime': '', 'closeTime': ''}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '', '', 'Y', '3', 'tkfkdkr@nate.com', 'kakaotalk', '2018-12-01 07:21:16', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 9, "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 1, "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 13, "sfsDesc": {"en": "There must be no stairs on the way to the elevator, and the width of the elevator entrance must be at least 32 inches / 81 cm.", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130\\uae4c\\uc9c0 \\uc774\\ub3d9\\ud558\\ub294\\ub370 \\uacc4\\ub2e8\\uc774 \\uc5c6\\uc5b4\\uc57c\\ud558\\uba70, \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130 \\uc785\\uad6c\\uc758 \\uac00\\ub85c \\uae38\\uc774\\uac00 \\ucd5c\\uc18c 32\\uc778\\uce58/81cm\\uc774\\uc5b4\\uc57c \\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Elevator", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 5, "sfsIconName": "icon_elevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 14, "sfsDesc": [], "sfsName": {"en": "Free parking", "ko": "\\uac74\\ubb3c \\ub0b4 \\ubb34\\ub8cc \\uc8fc\\ucc28"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 6, "sfsIconName": "icon_parking.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 15, "sfsDesc": {"en": "The Internet connection is stable", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uc5d0\\uc11c \\uc778\\ud130\\ub137\\uc774 \\ub04a\\uc784\\uc5c6\\uc774 \\uc5f0\\uacb0"}, "sfsName": {"en": "Wifi zone", "ko": "\\ubb34\\uc120 \\uc778\\ud130\\ub137"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 7, "sfsIconName": "icon_wifi.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 16, "sfsDesc": [], "sfsName": {"en": "Suitable for family / children", "ko": "\\uac00\\uc871/\\uc5b4\\ub9b0\\uc774 \\uc774\\uc6a9\\uc5d0 \\uc801\\ud569"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 8, "sfsIconName": "icon_people.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '관평동', '대전광역시 유성구 테크노4로 131', '34019.0', '', '', '', '37430940.0', '37430940.0', 'True', '관평도서관', '[{"pk_0": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_0.jpg"}, {"cid_0": "img_cid_37430940_0.jpg"}, {"pk_1": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_1.jpg"}, {"cid_1": "img_cid_37430940_1.jpg"}, {"pk_2": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_2.jpg"}, {"cid_2": "img_cid_37430940_2.jpg"}, {"pk_3": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_3.jpg"}, {"cid_3": "img_cid_37430940_3.jpg"}, {"pk_4": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_4.jpg"}, {"cid_4": "img_cid_37430940_4.jpg"}, {"pk_5": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_5.jpg"}, {"cid_5": "img_cid_37430940_5.jpg"}, {"pk_6": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_6.jpg"}, {"cid_6": "img_cid_37430940_6.jpg"}]', '37430940.0', 'True', 'no_rating', '', '관평도서관', '', '[\'&lt;div class="w9QyJ vI8SM DzD3b"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;em&gt;오늘 휴무&lt;/em&gt;&lt;div class="U7pYf"&gt;어린이자료실&lt;!-- --&gt; &lt;!-- --&gt;매주 월요일 휴무&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;월&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class="undefined"&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;정기휴무 (매주 월요일)&lt;/span&gt;&lt;/li&gt;&lt;li class="undefined"&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;정기휴무 (매주 월요일)&lt;/span&gt;&lt;/li&gt;&lt;li class="undefined"&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;정기휴무 (매주 월요일)&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;화&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;08:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;수&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;08:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;목&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;08:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;금&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;08:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;토&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;08:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;일&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;08:00 - 22:00&lt;/span&gt;&lt;span class="_UCia"&gt;&lt;svg aria-hidden="true" class="DNzQ2" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;접기&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ yN6TD"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;div&gt;일반열람실 - 열람실/휴게실 동절기 화~일요일 8시~22시 운영&lt;/div&gt;&lt;/span&gt;&lt;span class="_UCia"&gt;&lt;svg aria-hidden="true" class="DNzQ2" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;접기&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\']', '042-716-0350', '[]', '[]', '[&lt;li class="pcPAT"&gt;&lt;a class="CqNtE" href="https://blog.naver.com/8ydragon8/223033555848" role="button" target="_blank"&gt;&lt;div class="sDBiR"&gt;&lt;span class="qCU_P"&gt;&lt;img alt="프로필" class="DumTq" height="24" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f48_48&amp;amp;src=http%3A%2F%2Fblogpfthumb.phinf.naver.net%2FMjAyMjA2MTFfMTM2%2FMDAxNjU0OTE2NTU4NTcz.wld5uOYFrHsN1BatLWforMPAARKZ-3ZkG0FVq_HOqO0g.xVig9XwMOsVtFykpPm6bn5NjzO6jy6fTCn3zN2bk1hEg.JPEG.8ydragon8%2F__-1579924629770-0.jpg%2F__-1579924629770-0.jpg" width="24"/&gt;&lt;/span&gt;&lt;span class="AoB7r"&gt;루네로&lt;/span&gt;&lt;div class="BB1G2 wa2b6"&gt;&lt;span class="R2jvi"&gt;루네로의 북마크&lt;/span&gt;&lt;/div&gt;&lt;span class="BB1G2"&gt;&lt;time aria-hidden="true"&gt;3.16.목&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 16일 목요일&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="icjKM"&gt;&lt;div class="fdXfj"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="블로그" height="87" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f180_180&amp;amp;src=http%3A%2F%2Fblogfiles.naver.net%2FMjAyMzAzMDNfMTAw%2FMDAxNjc3ODIxNzE0Nzc0.52lGn9CHQcFBDW3Uz7Nh0yy57VhmU-O2jLu9OKcWFVUg.55XwGnUkB4xBCWPd38W5mZ2Rlhwl-VaAPgoPRQsRYfog.JPEG.8ydragon8%2F20230224_102225.jpg%233456x3456" width="87"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;25&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="QDJES"&gt;&lt;div class="v6ZcW"&gt;&lt;div class="rGI3P"&gt;&lt;span class="place_bluelink st60D"&gt;대전 관평도서관 방문기&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Ns0Qo"&gt;&lt;div class="p7XcC"&gt;관평도서관은 유성구에 위치한 공공도서관이다. 상업지구가 있는 라인에 위치하고 있어서 관평동에서 접근성은 좋은 편이다. 관평도서관은 지하층부터 3층까지 이루어져 있는 도서관이다. 지하에는 주차장이 있고, 1층에... &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;, &lt;li class="pcPAT"&gt;&lt;a class="CqNtE" href="https://blog.naver.com/yuseonggu/222726276206" role="button" target="_blank"&gt;&lt;div class="sDBiR"&gt;&lt;span class="qCU_P"&gt;&lt;img alt="프로필" class="DumTq" height="24" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f48_48&amp;amp;src=http%3A%2F%2Fblogpfthumb.phinf.naver.net%2FMjAyMzAxMzFfNjIg%2FMDAxNjc1MTM4MzE0MTA0.7_C5VHL_B8bBmhYpn7qhufVgjSg6jNVcakjgImkf6MAg.cF6faOnVmdPAV5Ntwm4v5jSYcYgWyATIP2hI8MLAgeEg.JPEG.yuseonggu%2F%2525EC%25259C%2525A0%2525EC%252584%2525B1%2525EC%25259D%2525B4.jpg%2F%2525EC%25259C%2525A0%2525EC%252584%2525B1%2525EC%25259D%2525B4.jpg" width="24"/&gt;&lt;/span&gt;&lt;span class="AoB7r"&gt;yuseonggu&lt;/span&gt;&lt;div class="BB1G2 wa2b6"&gt;&lt;span class="R2jvi"&gt;유성구 공식 블로그&lt;/span&gt;&lt;/div&gt;&lt;span class="BB1G2"&gt;&lt;time aria-hidden="true"&gt;22.5.10.화&lt;/time&gt;&lt;span class="place_blind"&gt;2022년 5월 10일 화요일&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="icjKM"&gt;&lt;div class="fdXfj"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="블로그" height="87" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f180_180&amp;amp;src=http%3A%2F%2Fblogfiles.naver.net%2FMjAyMjA1MDlfMTcg%2FMDAxNjUyMDg0MzMwODY2.padUEPQ4vOFhzChOsEolES7oa4LS5NmxubNhefk2yAQg.SDcki7nd2h7_k3iQulQQA1mctg5itIL_NWacc5ldwi0g.JPEG.yuseonggu%2F2022_thumb-01.jpg%23964x1000" width="87"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;16&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="QDJES"&gt;&lt;div class="v6ZcW"&gt;&lt;div class="rGI3P"&gt;&lt;span class="place_bluelink st60D"&gt;대전 유성구 가볼만한곳, 퇴근 후에도 공부하러 가기좋은 \'관평도서관\'&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Ns0Qo"&gt;&lt;div class="p7XcC"&gt;대전 유성구 가볼만한곳, 퇴근 후에도 공부하러 가기좋은 \'관평도서관\' 개미는(뚠뚠) 오늘도(뚠뚠) 열심히~일을~하네(뚠뚠) 개미는(뚠뚠) 언제나(뚠뚠) 열심히~일을~하네(뚠뚠) 개미 같은 직장인은 퇴근해도 쉽게 쉴 수... &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;, &lt;li class="pcPAT"&gt;&lt;a class="CqNtE" href="https://blog.naver.com/yuseonggu/222669631729" role="button" target="_blank"&gt;&lt;div class="sDBiR"&gt;&lt;span class="qCU_P"&gt;&lt;img alt="프로필" class="DumTq" height="24" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f48_48&amp;amp;src=http%3A%2F%2Fblogpfthumb.phinf.naver.net%2FMjAyMzAxMzFfNjIg%2FMDAxNjc1MTM4MzE0MTA0.7_C5VHL_B8bBmhYpn7qhufVgjSg6jNVcakjgImkf6MAg.cF6faOnVmdPAV5Ntwm4v5jSYcYgWyATIP2hI8MLAgeEg.JPEG.yuseonggu%2F%2525EC%25259C%2525A0%2525EC%252584%2525B1%2525EC%25259D%2525B4.jpg%2F%2525EC%25259C%2525A0%2525EC%252584%2525B1%2525EC%25259D%2525B4.jpg" width="24"/&gt;&lt;/span&gt;&lt;span class="AoB7r"&gt;yuseonggu&lt;/span&gt;&lt;div class="BB1G2 wa2b6"&gt;&lt;span class="R2jvi"&gt;유성구 공식 블로그&lt;/span&gt;&lt;/div&gt;&lt;span class="BB1G2"&gt;&lt;time aria-hidden="true"&gt;22.3.11.금&lt;/time&gt;&lt;span class="place_blind"&gt;2022년 3월 11일 금요일&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="icjKM"&gt;&lt;div class="fdXfj"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="블로그" height="87" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f180_180&amp;amp;src=http%3A%2F%2Fblogfiles.naver.net%2FMjAyMjAzMTFfODUg%2FMDAxNjQ2OTY3NjQ4MTI3.QFQCmdSR7QNFK_AGA-NUdRCyknIuyGKcBgvCrpUkRewg.IgGMQiWyBxy-994rHeOSKo4C9GS6wutMs5fi03Na_Esg.JPEG.yuseonggu%2F2022_thumb-01.jpg%23964x1000" width="87"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;29&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="QDJES"&gt;&lt;div class="v6ZcW"&gt;&lt;div class="rGI3P"&gt;&lt;span class="place_bluelink st60D"&gt;대전 유성구 도서관 소식, 아이부터 어르신까지! 다양한 도서가 있는... &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Ns0Qo"&gt;&lt;div class="p7XcC"&gt;대전 유성구 도서관 소식, 아이부터 어르신까지! 다양한 도서가 있는 \'관평도서관\' 소식 안내 안녕하세요. 대전 유성구 관평동에 있는 관평도서관의 2022년 소식을 전합니다. 지난 1월 18일 이후로 방역 패스에서 해제된... &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;]']</t>
+          <t>['212', '212', 'b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116', 'mid', '4.0', '관평도서관', 'category3', '3', '2.0', '36.423212126286', '127.38839326484', '', '대전 유성구 테크노4로 131', '관평도서관', '27306960', "{'openDays': '', 'openTime': '', 'closeTime': ''}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '', '', 'Y', '3', 'tkfkdkr@nate.com', 'kakaotalk', '2018-12-01 07:21:16', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 9, "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 1, "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 13, "sfsDesc": {"en": "There must be no stairs on the way to the elevator, and the width of the elevator entrance must be at least 32 inches / 81 cm.", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130\\uae4c\\uc9c0 \\uc774\\ub3d9\\ud558\\ub294\\ub370 \\uacc4\\ub2e8\\uc774 \\uc5c6\\uc5b4\\uc57c\\ud558\\uba70, \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130 \\uc785\\uad6c\\uc758 \\uac00\\ub85c \\uae38\\uc774\\uac00 \\ucd5c\\uc18c 32\\uc778\\uce58/81cm\\uc774\\uc5b4\\uc57c \\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Elevator", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 5, "sfsIconName": "icon_elevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 14, "sfsDesc": [], "sfsName": {"en": "Free parking", "ko": "\\uac74\\ubb3c \\ub0b4 \\ubb34\\ub8cc \\uc8fc\\ucc28"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 6, "sfsIconName": "icon_parking.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 15, "sfsDesc": {"en": "The Internet connection is stable", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uc5d0\\uc11c \\uc778\\ud130\\ub137\\uc774 \\ub04a\\uc784\\uc5c6\\uc774 \\uc5f0\\uacb0"}, "sfsName": {"en": "Wifi zone", "ko": "\\ubb34\\uc120 \\uc778\\ud130\\ub137"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 7, "sfsIconName": "icon_wifi.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 16, "sfsDesc": [], "sfsName": {"en": "Suitable for family / children", "ko": "\\uac00\\uc871/\\uc5b4\\ub9b0\\uc774 \\uc774\\uc6a9\\uc5d0 \\uc801\\ud569"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 8, "sfsIconName": "icon_people.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '관평동', '대전광역시 유성구 테크노4로 131', '34019.0', '', '', '', '37430940.0', '37430940.0', 'True', '관평도서관', '[{"pk_0": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_0.jpg"}, {"cid_0": "img_cid_37430940_0.jpg"}, {"pk_1": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_1.jpg"}, {"cid_1": "img_cid_37430940_1.jpg"}, {"pk_2": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_2.jpg"}, {"cid_2": "img_cid_37430940_2.jpg"}, {"pk_3": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_3.jpg"}, {"cid_3": "img_cid_37430940_3.jpg"}, {"pk_4": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_4.jpg"}, {"cid_4": "img_cid_37430940_4.jpg"}, {"pk_5": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_5.jpg"}, {"cid_5": "img_cid_37430940_5.jpg"}, {"pk_6": "img_pk_b4ff2c7c4d2e6f8ff1bdf93bca990f9720181201072116_6.jpg"}, {"cid_6": "img_cid_37430940_6.jpg"}]', '37430940.0', 'True', 'no_rating', '', '관평도서관', '', '[\'&lt;div class="w9QyJ vI8SM DzD3b"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;em&gt;오늘 휴무&lt;/em&gt;&lt;div class="U7pYf"&gt;어린이자료실&lt;!-- --&gt; &lt;!-- --&gt;매주 월요일 휴무&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;월&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class="undefined"&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;정기휴무 (매주 월요일)&lt;/span&gt;&lt;/li&gt;&lt;li class="undefined"&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;정기휴무 (매주 월요일)&lt;/span&gt;&lt;/li&gt;&lt;li class="undefined"&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;정기휴무 (매주 월요일)&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;화&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;08:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;수&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;08:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;목&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;08:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;금&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;08:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;토&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;08:00 - 22:00&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;div class="A_cdD"&gt;&lt;span class="i8cJw"&gt;일&lt;/span&gt;&lt;ul class="xmQdY"&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;어린이자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;종합자료실&lt;/span&gt;&lt;span class="H3ua4"&gt;09:00 - 18:00&lt;/span&gt;&lt;/li&gt;&lt;li class=""&gt;&lt;span class="l_mXo"&gt;일반열람실&lt;/span&gt;&lt;span class="H3ua4"&gt;08:00 - 22:00&lt;/span&gt;&lt;span class="_UCia"&gt;&lt;svg aria-hidden="true" class="DNzQ2" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;접기&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ yN6TD"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;&lt;div&gt;일반열람실 - 열람실/휴게실 동절기 화~일요일 8시~22시 운영&lt;/div&gt;&lt;/span&gt;&lt;span class="_UCia"&gt;&lt;svg aria-hidden="true" class="DNzQ2" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;접기&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\']', '042-716-0350', '[]', '[]', '[&lt;li class="pcPAT"&gt;&lt;a class="CqNtE" href="https://blog.naver.com/8ydragon8/223033555848" role="button" target="_blank"&gt;&lt;div class="sDBiR"&gt;&lt;span class="qCU_P"&gt;&lt;img alt="프로필" class="DumTq" height="24" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f48_48&amp;amp;src=http%3A%2F%2Fblogpfthumb.phinf.naver.net%2FMjAyMjA2MTFfMTM2%2FMDAxNjU0OTE2NTU4NTcz.wld5uOYFrHsN1BatLWforMPAARKZ-3ZkG0FVq_HOqO0g.xVig9XwMOsVtFykpPm6bn5NjzO6jy6fTCn3zN2bk1hEg.JPEG.8ydragon8%2F__-1579924629770-0.jpg%2F__-1579924629770-0.jpg" width="24"/&gt;&lt;/span&gt;&lt;span class="AoB7r"&gt;루네로&lt;/span&gt;&lt;div class="BB1G2 wa2b6"&gt;&lt;span class="R2jvi"&gt;루네로의 북마크&lt;/span&gt;&lt;/div&gt;&lt;span class="BB1G2"&gt;&lt;time aria-hidden="true"&gt;3.16.목&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 16일 목요일&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="icjKM"&gt;&lt;div class="fdXfj"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="블로그" height="87" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f180_180&amp;amp;src=http%3A%2F%2Fblogfiles.naver.net%2FMjAyMzAzMDNfMTAw%2FMDAxNjc3ODIxNzE0Nzc0.52lGn9CHQcFBDW3Uz7Nh0yy57VhmU-O2jLu9OKcWFVUg.55XwGnUkB4xBCWPd38W5mZ2Rlhwl-VaAPgoPRQsRYfog.JPEG.8ydragon8%2F20230224_102225.jpg%233456x3456" width="87"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;25&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="QDJES"&gt;&lt;div class="v6ZcW"&gt;&lt;div class="rGI3P"&gt;&lt;span class="place_bluelink st60D"&gt;대전 관평도서관 방문기&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Ns0Qo"&gt;&lt;div class="p7XcC"&gt;관평도서관은 유성구에 위치한 공공도서관이다. 상업지구가 있는 라인에 위치하고 있어서 관평동에서 접근성은 좋은 편이다. 관평도서관은 지하층부터 3층까지 이루어져 있는 도서관이다. 지하에는 주차장이 있고, 1층에... &lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;, &lt;li class="pcPAT"&gt;&lt;a class="CqNtE" href="https://blog.naver.com/yuseonggu/222726276206" role="button" target="_blank"&gt;&lt;div class="sDBiR"&gt;&lt;span class="qCU_P"&gt;&lt;img alt="프로필" class="DumTq" height="24" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f48_48&amp;amp;src=http%3A%2F%2Fblogpfthumb.phinf.naver.net%2FMjAyMzAxMzFfNjIg%2FMDAxNjc1MTM4MzE0MTA0.7_C5VHL_B8bBmhYpn7qhufVgjSg6jNVcakjgImkf6MAg.cF6faOnVmdPAV5Ntwm4v5jSYcYgWyATIP2hI8MLAgeEg.JPEG.yuseonggu%2F%2525EC%25259C%2525A0%2525EC%252584%2525B1%2525EC%25259D%2525B4.jpg%2F%2525EC%25259C%2525A0%2525EC%252584%2525B1%2525EC%25259D%2525B4.jpg" width="24"/&gt;&lt;/span&gt;&lt;span class="AoB7r"&gt;yuseonggu&lt;/span&gt;&lt;div class="BB1G2 wa2b6"&gt;&lt;span class="R2jvi"&gt;유성구 공식 블로그&lt;/span&gt;&lt;/div&gt;&lt;span class="BB1G2"&gt;&lt;time aria-hidden="true"&gt;22.5.10.화&lt;/time&gt;&lt;span class="place_blind"&gt;2022년 5월 10일 화요일&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="icjKM"&gt;&lt;div class="fdXfj"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="블로그" height="87" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f180_180&amp;amp;src=http%3A%2F%2Fblogfiles.naver.net%2FMjAyMjA1MDlfMTcg%2FMDAxNjUyMDg0MzMwODY2.padUEPQ4vOFhzChOsEolES7oa4LS5NmxubNhefk2yAQg.SDcki7nd2h7_k3iQulQQA1mctg5itIL_NWacc5ldwi0g.JPEG.yuseonggu%2F2022_thumb-01.jpg%23964x1000" width="87"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;16&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="QDJES"&gt;&lt;div class="v6ZcW"&gt;&lt;div class="rGI3P"&gt;&lt;span class="place_bluelink st60D"&gt;대전 유성구 가볼만한곳, 퇴근 후에도 공부하러 가기좋은 \'관평도서관\'&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Ns0Qo"&gt;&lt;div class="p7XcC"&gt;대전 유성구 가볼만한곳, 퇴근 후</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>['229', '229', '412fef3eec9378a6d63135d07146222a20181201042909', 'mid', '4.0', '대전 예술의 전당', 'category3', '3', '5.0', '36.366353590323', '127.38404266906', '35204', '대전광역시 서구 둔산대로 135', '대전예술의전당', '', "{'openDays': '', 'openTime': '', 'closeTime': ''}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '', '', 'Y', '3', '687547311628294@bfzido.org', 'fb', '2018-12-01 04:29:09', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 9, "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 1, "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 10, "sfsDesc": [], "sfsName": {"en": "Disabled toilet available", "ko": "\\uc7a5\\uc560\\uc778 \\ud654\\uc7a5\\uc2e4 \\uc788\\uc74c"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 2, "sfsIconName": "icon_restroom.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 12, "sfsDesc": [], "sfsName": {"en": "Elevator for the disabled", "ko": "\\uc7a5\\uc560\\uc778 \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 4, "sfsIconName": "icon_disabledelevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 13, "sfsDesc": {"en": "There must be no stairs on the way to the elevator, and the width of the elevator entrance must be at least 32 inches / 81 cm.", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130\\uae4c\\uc9c0 \\uc774\\ub3d9\\ud558\\ub294\\ub370 \\uacc4\\ub2e8\\uc774 \\uc5c6\\uc5b4\\uc57c\\ud558\\uba70, \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130 \\uc785\\uad6c\\uc758 \\uac00\\ub85c \\uae38\\uc774\\uac00 \\ucd5c\\uc18c 32\\uc778\\uce58/81cm\\uc774\\uc5b4\\uc57c \\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Elevator", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 5, "sfsIconName": "icon_elevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 14, "sfsDesc": [], "sfsName": {"en": "Free parking", "ko": "\\uac74\\ubb3c \\ub0b4 \\ubb34\\ub8cc \\uc8fc\\ucc28"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 6, "sfsIconName": "icon_parking.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 16, "sfsDesc": [], "sfsName": {"en": "Suitable for family / children", "ko": "\\uac00\\uc871/\\uc5b4\\ub9b0\\uc774 \\uc774\\uc6a9\\uc5d0 \\uc801\\ud569"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 8, "sfsIconName": "icon_people.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '만년동', '대전광역시 서구 둔산대로 135', '35204.0', '', '', '', '11547407.0', '11547407.0', 'True', '대전예술의전당', '[{"pk_0": "img_pk_412fef3eec9378a6d63135d07146222a20181201042909_0.jpg"}, {"cid_0": "img_cid_11547407_0.jpg"}, {"pk_1": "img_pk_412fef3eec9378a6d63135d07146222a20181201042909_1.jpg"}, {"cid_1": "img_cid_11547407_1.jpg"}, {"pk_2": "img_pk_412fef3eec9378a6d63135d07146222a20181201042909_2.jpg"}, {"cid_2": "img_cid_11547407_2.jpg"}, {"pk_3": "img_pk_412fef3eec9378a6d63135d07146222a20181201042909_3.jpg"}, {"cid_3": "img_cid_11547407_3.jpg"}, {"pk_4": "img_pk_412fef3eec9378a6d63135d07146222a20181201042909_4.jpg"}, {"cid_4": "img_cid_11547407_4.jpg"}]', '11547407.0', 'True', '4.21', '[49]', '대전예술의전당', '[]', '[]', '042-270-8333', '[&lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;굿&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/62b8093ecb71e1c07928fa03/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/62b8093ecb71e1c07928fa03/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;79h****&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;2.10.금&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 2월 10일 금요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;쾌적하고 상냥해요&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5f0686173b535016872d4d5a/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=w250&amp;amp;src=https%3A%2F%2Fmyplace-phinf.pstatic.net%2F20220928_47%2F1664372734776OEgRJ_JPEG%2F20220623_120110.jpg" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5f0686173b535016872d4d5a/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;일그만하구와&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;22.10.1.토&lt;/time&gt;&lt;span class="place_blind"&gt;2022년 10월 1일 토요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;생강차 맛있어요&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5e3564098f87a842bce0d2f6/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5e3564098f87a842bce0d2f6/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;k2i****&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;22.10.26.수&lt;/time&gt;&lt;span class="place_blind"&gt;2022년 10월 26일 수요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;]', '[]', '[&lt;li class="FWB41"&gt;&lt;div class="FV5KC"&gt;&lt;a class="place_thumb" href="https://m.booking.naver.com/booking/12/bizes/851335?theme=place&amp;amp;service-target=map-pc&amp;amp;area=bmp" role="button" target="_self"&gt;&lt;img alt="장진선 바이올린 리사이틀 - 대전" height="142" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f226_324&amp;amp;src=https%3A%2F%2Fcsearch-phinf.pstatic.net%2F20230220_39%2F1676872856830q0GJs_JPEG%2F269_image_url_1676872856814.jpg" width="100"/&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="Ri30Q"&gt;&lt;div class="RpXWx"&gt;&lt;a class="YyHut" href="https://m.booking.naver.com/booking/12/bizes/851335?theme=place&amp;amp;service-target=map-pc&amp;amp;area=bmp" role="button" target="_self"&gt;&lt;span class="place_bluelink VX2vb"&gt;장진선 바이올린 리사이틀 - 대전&lt;/span&gt;&lt;span class="k1xm3"&gt;공연예정&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="Hi5TR"&gt;&lt;div class="Qyc9e"&gt;&lt;span class="_tHkM"&gt;기간&lt;/span&gt;&lt;span class="u69Xb"&gt;&lt;time aria-hidden="true"&gt;23.03.21.~23.03.21.&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 21일 부터 2023년 3월 21일 까지&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="Qyc9e"&gt;&lt;span class="_tHkM"&gt;정보&lt;/span&gt;&lt;span class="u69Xb"&gt;클래식&lt;/span&gt;&lt;span class="u69Xb"&gt;80&lt;!-- --&gt;분&lt;/span&gt;&lt;span class="u69Xb"&gt;8세 이상&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Mw3ae"&gt;&lt;a class="oFfbS" href="https://m.booking.naver.com/booking/12/bizes/851335?theme=place&amp;amp;service-target=map-pc&amp;amp;area=bmp" role="button" target="_self"&gt;&lt;svg aria-hidden="true" class="_AOfl" viewbox="0 0 16 16" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.4 1.3h4.2V16H.4V1.3h4.1V0h1.1v1.3h4.9V0h1.1l-.2 1.3zm3.2 2.1H1.4V15h13.1l.1-11.6zM6.7 8.8v3.4H4.6V5.9h2.1l2.5 3.4V5.9h2.1v6.3h-2L6.7 8.8z"&gt;&lt;/path&gt;&lt;/svg&gt;예매&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="FWB41"&gt;&lt;div class="FV5KC"&gt;&lt;a class="place_thumb" href="https://search.naver.com/search.naver?query=2023%20%EC%97%90%EB%93%80%EC%8A%A4%EC%95%84%ED%8A%B8%20%EC%A0%95%EA%B8%B0%EC%97%B0%EC%A3%BC%ED%9A%8C%20-%20%EB%8C%80%EC%A0%84&amp;amp;os=29778337&amp;amp;pkid=269" role="button" target="_blank"&gt;&lt;img alt="2023 에듀스아트 정기연주회 - 대전" height="142" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f226_324&amp;amp;src=https%3A%2F%2Fcsearch-phinf.pstatic.net%2F20230215_120%2F1676431837989nlXhi_JPEG%2F269_image_url_1676431837956.jpg" width="100"/&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="Ri30Q"&gt;&lt;div class="RpXWx"&gt;&lt;a class="YyHut" href="https://search.naver.com/search.naver?query=2023%20%EC%97%90%EB%93%80%EC%8A%A4%EC%95%84%ED%8A%B8%20%EC%A0%95%EA%B8%B0%EC%97%B0%EC%A3%BC%ED%9A%8C%20-%20%EB%8C%80%EC%A0%84&amp;amp;os=29778337&amp;amp;pkid=269" role="button" target="_blank"&gt;&lt;span class="place_bluelink VX2vb"&gt;2023 에듀스아트 정기연주회 - 대전&lt;/span&gt;&lt;span class="k1xm3"&gt;공연예정&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="Hi5TR"&gt;&lt;div class="Qyc9e"&gt;&lt;span class="_tHkM"&gt;기간&lt;/span&gt;&lt;span class="u69Xb"&gt;&lt;time aria-hidden="true"&gt;23.03.22.~23.03.22.&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 22일 부터 2023년 3월 22일 까지&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="Qyc9e"&gt;&lt;span class="_tHkM"&gt;정보&lt;/span&gt;&lt;span class="u69Xb"&gt;클래식&lt;/span&gt;&lt;span class="u69Xb"&gt;80&lt;!-- --&gt;분&lt;/span&gt;&lt;span class="u69Xb"&gt;8세 이상&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Mw3ae"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="FWB41"&gt;&lt;div class="FV5KC"&gt;&lt;a class="place_thumb" href="https://search.naver.com/search.naver?query=%EB%8C%80%EC%A0%84%EC%8B%9C%EB%A6%BD%ED%95%A9%EC%B0%BD%EB%8B%A8%20%EA%B8%B0%ED%9A%8D%EC%97%B0%EC%A3%BC%ED%9A%8C2%20%E3%80%88%EA%B5%90%EA%B3%BC%EC%84%9C%20%EC%9D%8C%EC%95%85%ED%9A%8C%E3%80%89%20-%20%EB%8C%80%EC%A0%84&amp;amp;os=29811901&amp;amp;pkid=269" role="button" target="_blank"&gt;&lt;img alt="대전시립합창단 기획연주회2 〈교과서 음악회〉 - 대전" height="142" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f226_324&amp;amp;src=https%3A%2F%2Fcsearch-phinf.pstatic.net%2F20230222_220%2F1677044333204qT42A_JPEG%2F269_image_url_1677044333188.jpg" width="100"/&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="Ri30Q"&gt;&lt;div class="RpXWx"&gt;&lt;a class="YyHut" href="https://search.naver.com/search.naver?query=%EB%8C%80%EC%A0%84%EC%8B%9C%EB%A6%BD%ED%95%A9%EC%B0%BD%EB%8B%A8%20%EA%B8%B0%ED%9A%8D%EC%97%B0%EC%A3%BC%ED%9A%8C2%20%E3%80%88%EA%B5%90%EA%B3%BC%EC%84%9C%20%EC%9D%8C%EC%95%85%ED%9A%8C%E3%80%89%20-%20%EB%8C%80%EC%A0%84&amp;amp;os=29811901&amp;amp;pkid=269" role="button" target="_blank"&gt;&lt;span class="place_bluelink VX2vb"&gt;대전시립합창단 기획연주회2 〈교과서 음악회〉 - 대전&lt;/span&gt;&lt;span class="k1xm3"&gt;공연예정&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="Hi5TR"&gt;&lt;div class="Qyc9e"&gt;&lt;span class="_tHkM"&gt;기간&lt;/span&gt;&lt;span class="u69Xb"&gt;&lt;time aria-hidden="true"&gt;23.03.23.~23.03.23.&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 23일 부터 2023년 3월 23일 까지&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="Qyc9e"&gt;&lt;span class="_tHkM"&gt;정보&lt;/span&gt;&lt;span class="u69Xb"&gt;클래식&lt;/span&gt;&lt;span class="u69Xb"&gt;70&lt;!-- --&gt;분&lt;/span&gt;&lt;span class="u69Xb"&gt;8세 이상&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Mw3ae"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="FWB41"&gt;&lt;div class="FV5KC"&gt;&lt;a class="place_thumb" href="https://search.naver.com/search.naver?query=%EB%8C%80%EC%A0%84%EC%8B%9C%EB%A6%BD%EA%B5%90%ED%96%A5%EC%95%85%EB%8B%A8%20%EB%A7%88%EC%8A%A4%ED%84%B0%EC%A6%88%20%EC%8B%9C%EB%A6%AC%EC%A6%88%205%20%5B%EB%A6%BC%EC%8A%A4%ED%82%A4%EC%BD%94%EB%A5%B4%EC%82%AC%EC%BD%94%ED%94%84%20%EC%84%B8%ED%97%A4%EB%9D%BC%EC%9E%90%EB%8D%B0%5D&amp;amp;os=29599745&amp;amp;pkid=269" role="button" target="_blank"&gt;&lt;img alt="대전시립교향악단 마스터즈 시리즈 5 [림스키코르사코프 세헤라자데]" height="142" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f226_324&amp;amp;src=https%3A%2F%2Fcsearch-phinf.pstatic.net%2F20230310_198%2F1678414794998VtJeo_JPEG%2F269_29599745_image_url_1678414794979.jpg" width="100"/&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="Ri30Q"&gt;&lt;div class="RpXWx"&gt;&lt;a class="YyHut" href="https://search.naver.com/search.naver?query=%EB%8C%80%EC%A0%84%EC%8B%9C%EB%A6%BD%EA%B5%90%ED%96%A5%EC%95%85%EB%8B%A8%20%EB%A7%88%EC%8A%A4%ED%84%B0%EC%A6%88%20%EC%8B%9C%EB%A6%AC%EC%A6%88%205%20%5B%EB%A6%BC%EC%8A%A4%ED%82%A4%EC%BD%94%EB%A5%B4%EC%82%AC%EC%BD%94%ED%94%84%20%EC%84%B8%ED%97%A4%EB%9D%BC%EC%9E%90%EB%8D%B0%5D&amp;amp;os=29599745&amp;amp;pkid=269" role="button" target="_blank"&gt;&lt;span class="place_bluelink VX2vb"&gt;대전시립교향악단 마스터즈 시리즈 5 [림스키코르사코프 세헤라자데]&lt;/span&gt;&lt;span class="k1xm3"&gt;공연예정&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="Hi5TR"&gt;&lt;div class="Qyc9e"&gt;&lt;span class="_tHkM"&gt;기간&lt;/span&gt;&lt;span class="u69Xb"&gt;&lt;time aria-hidden="true"&gt;23.03.24.~23.03.24.&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 24일 부터 2023년 3월 24일 까지&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="Qyc9e"&gt;&lt;span class="_tHkM"&gt;정보&lt;/span&gt;&lt;span class="u69Xb"&gt;클래식&lt;/span&gt;&lt;span class="u69Xb"&gt;90&lt;!-- --&gt;분&lt;/span&gt;&lt;span class="u69Xb"&gt;8세 이상&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Mw3ae"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;]']</t>
+          <t>['229', '229', '412fef3eec9378a6d63135d07146222a20181201042909', 'mid', '4.0', '대전 예술의 전당', 'category3', '3', '5.0', '36.366353590323', '127.38404266906', '35204', '대전광역시 서구 둔산대로 135', '대전예술의전당', '', "{'openDays': '', 'openTime': '', 'closeTime': ''}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '', '', '', 'Y', '3', '687547311628294@bfzido.org', 'fb', '2018-12-01 04:29:09', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 9, "sfsDesc": [], "sfsName": {"en": "The place is on the first floor.", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uac00 1\\uce35\\uc5d0 \\uc704\\uce58\\ud568"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 1, "sfsIconName": "icon_groundfloor.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 10, "sfsDesc": [], "sfsName": {"en": "Disabled toilet available", "ko": "\\uc7a5\\uc560\\uc778 \\ud654\\uc7a5\\uc2e4 \\uc788\\uc74c"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 2, "sfsIconName": "icon_restroom.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 12, "sfsDesc": [], "sfsName": {"en": "Elevator for the disabled", "ko": "\\uc7a5\\uc560\\uc778 \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 4, "sfsIconName": "icon_disabledelevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 13, "sfsDesc": {"en": "There must be no stairs on the way to the elevator, and the width of the elevator entrance must be at least 32 inches / 81 cm.", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130\\uae4c\\uc9c0 \\uc774\\ub3d9\\ud558\\ub294\\ub370 \\uacc4\\ub2e8\\uc774 \\uc5c6\\uc5b4\\uc57c\\ud558\\uba70, \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130 \\uc785\\uad6c\\uc758 \\uac00\\ub85c \\uae38\\uc774\\uac00 \\ucd5c\\uc18c 32\\uc778\\uce58/81cm\\uc774\\uc5b4\\uc57c \\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Elevator", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 5, "sfsIconName": "icon_elevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 14, "sfsDesc": [], "sfsName": {"en": "Free parking", "ko": "\\uac74\\ubb3c \\ub0b4 \\ubb34\\ub8cc \\uc8fc\\ucc28"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 6, "sfsIconName": "icon_parking.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 16, "sfsDesc": [], "sfsName": {"en": "Suitable for family / children", "ko": "\\uac00\\uc871/\\uc5b4\\ub9b0\\uc774 \\uc774\\uc6a9\\uc5d0 \\uc801\\ud569"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 8, "sfsIconName": "icon_people.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '만년동', '대전광역시 서구 둔산대로 135', '35204.0', '', '', '', '11547407.0', '11547407.0', 'True', '대전예술의전당', '[{"pk_0": "img_pk_412fef3eec9378a6d63135d07146222a20181201042909_0.jpg"}, {"cid_0": "img_cid_11547407_0.jpg"}, {"pk_1": "img_pk_412fef3eec9378a6d63135d07146222a20181201042909_1.jpg"}, {"cid_1": "img_cid_11547407_1.jpg"}, {"pk_2": "img_pk_412fef3eec9378a6d63135d07146222a20181201042909_2.jpg"}, {"cid_2": "img_cid_11547407_2.jpg"}, {"pk_3": "img_pk_412fef3eec9378a6d63135d07146222a20181201042909_3.jpg"}, {"cid_3": "img_cid_11547407_3.jpg"}, {"pk_4": "img_pk_412fef3eec9378a6d63135d07146222a20181201042909_4.jpg"}, {"cid_4": "img_cid_11547407_4.jpg"}]', '11547407.0', 'True', '4.21', '[49]', '대전예술의전당', '[]', '[]', '042-270-8333', '[&lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;굿&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/62b8093ecb71e1c07928fa03/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/62b8093ecb71e1c07928fa03/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;79h****&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;2.10.금&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 2월 10일 금요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;쾌적하고 상냥해요&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5f0686173b535016872d4d5a/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=w250&amp;amp;src=https%3A%2F%2Fmyplace-phinf.pstatic.net%2F20220928_47%2F1664372734776OEgRJ_JPEG%2F20220623_120110.jpg" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5f0686173b535016872d4d5a/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;일그만하구와&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;22.10.1.토&lt;/time&gt;&lt;span class="place_blind"&gt;2022년 10월 1일 토요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;생강차 맛있어요&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5e3564098f87a842bce0d2f6/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5e3564098f87a842bce0d2f6/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;k2i****&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;22.10.26.수&lt;/time&gt;&lt;span class="place_blind"&gt;2022년 10월 26일 수요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;]', '[]', '[&lt;li class="FWB41"&gt;&lt;div class="FV5KC"&gt;&lt;a class="place_thumb" href="https://m.booking.naver.com/booking/12/bizes/851335?theme=place&amp;amp;service-target=map-pc&amp;amp;area=bmp" role="button" target="_self"&gt;&lt;img alt="장진선 바이올린 리사이틀 - 대전" height="142" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f226_324&amp;amp;src=https%3A%2F%2Fcsearch-phinf.pstatic.net%2F20230220_39%2F1676872856830q0GJs_JPEG%2F269_image_url_1676872856814.jpg" width="100"/&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="Ri30Q"&gt;&lt;div class="RpXWx"&gt;&lt;a class="YyHut" href="https://m.booking.naver.com/booking/12/bizes/851335?theme=place&amp;amp;service-target=map-pc&amp;amp;area=bmp" role="button" target="_self"&gt;&lt;span class="place_bluelink VX2vb"&gt;장진선 바이올린 리사이틀 - 대전&lt;/span&gt;&lt;span class="k1xm3"&gt;공연예정&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="Hi5TR"&gt;&lt;div class="Qyc9e"&gt;&lt;span class="_tHkM"&gt;기간&lt;/span&gt;&lt;span class="u69Xb"&gt;&lt;time aria-hidden="true"&gt;23.03.21.~23.03.21.&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 21일 부터 2023년 3월 21일 까지&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="Qyc9e"&gt;&lt;span class="_tHkM"&gt;정보&lt;/span&gt;&lt;span class="u69Xb"&gt;클래식&lt;/span&gt;&lt;span class="u69Xb"&gt;80&lt;!-- --&gt;분&lt;/span&gt;&lt;span class="u69Xb"&gt;8세 이상&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Mw3ae"&gt;&lt;a class="oFfbS" href="https://m.booking.naver.com/booking/12/bizes/851335?theme=place&amp;amp;service-target=map-pc&amp;amp;area=bmp" role="button" target="_self"&gt;&lt;svg aria-hidden="true" class="_AOfl" viewbox="0 0 16 16" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.4 1.3h4.2V16H.4V1.3h4.1V0h1.1v1.3h4.9V0h1.1l-.2 1.3zm3.2 2.1H1.4V15h13.1l.1-11.6zM6.7 8.8v3.4H4.6V5.9h2.1l2.5 3.4V5.9h2.1v6.3h-2L6.7 8.8z"&gt;&lt;/path&gt;&lt;/svg&gt;예매&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="FWB41"&gt;&lt;div class="FV5KC"&gt;&lt;a class="place_thumb" href="https://search.naver.com/search.naver?query=2023%20%EC%97%90%EB%93%80%EC%8A%A4%EC%95%84%ED%8A%B8%20%EC%A0%95%EA%B8%B0%EC%97%B0%EC%A3%BC%ED%9A%8C%20-%20%EB%8C%80%EC%A0%84&amp;amp;os=29778337&amp;amp;pkid=269" role="button" target="_blank"&gt;&lt;img alt="2023 에듀스아트 정기연주회 - 대전" height="142" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f226_324&amp;amp;src=https%3A%2F%2Fcsearch-phinf.pstatic.net%2F20230215_120%2F1676431837989nlXhi_JPEG%2F269_image_url_1676431837956.jpg" width="100"/&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="Ri30Q"&gt;&lt;div class="RpXWx"&gt;&lt;a class="YyHut" href="https://search.naver.com/search.naver?query=2023%20%EC%97%90%EB%93%80%EC%8A%A4%EC%95%84%ED%8A%B8%20%EC%A0%95%EA%B8%B0%EC%97%B0%EC%A3%BC%ED%9A%8C%20-%20%EB%8C%80%EC%A0%84&amp;amp;os=29778337&amp;amp;pkid=269" role="button" target="_blank"&gt;&lt;span class="place_bluelink VX2vb"&gt;2023 에듀스아트 정기연주회 - 대전&lt;/span&gt;&lt;span class="k1xm3"&gt;공연예정&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="Hi5TR"&gt;&lt;div class="Qyc9e"&gt;&lt;span class="_tHkM"&gt;기간&lt;/span&gt;&lt;span class="u69Xb"&gt;&lt;time aria-hidden="true"&gt;23.03.22.~23.03.22.&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 22일 부터 2023년 3월 22일 까지&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="Qyc9e"&gt;&lt;span class="_tHkM"&gt;정보&lt;/span&gt;&lt;span class="u69Xb"&gt;클래식&lt;/span&gt;&lt;span class="u69Xb"&gt;80&lt;!-- --&gt;분&lt;/span&gt;&lt;span class="u69Xb"&gt;8세 이상&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="Mw3ae"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="FWB41"&gt;&lt;div class="FV5KC"&gt;&lt;a class="place_thumb" href="https://search.naver.com/search.naver?query=%EB%8C%80%EC%A0%84%EC%8B%9C%EB%A6%BD%ED%95%A9%EC%B0%BD%EB%8B%A8%20%EA%B8%B0%ED%9A%8D%EC%97%B0%EC%A3%BC%ED%9A%8C2%20%E3%80%88%EA%B5%90%EA%B3%BC%EC%84%9C%20%EC%9D%8C%EC%95%85%ED%9A%8C%E3%80%89%20-%20%EB%8C%80%EC%A0%84&amp;amp;os=29811901&amp;amp;pkid=269" role="button" target="_blank"&gt;&lt;img alt="대전시립합창단 기획연주회2 〈교과서 음악회〉 - 대전" height="142" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f226_324&amp;amp;src=https%3A%2F%2Fcsearch-phinf.pstatic.net%2F20230222_220%2F1677044333204qT42A_JPEG%2F269_image_url_1677044333188.jpg" width="100"/&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="Ri30Q"&gt;&lt;div class="RpXWx"&gt;&lt;a class="YyHut" href="https://search.naver.com/search.naver?query=%EB%8C%80%EC%A0%84%EC%8B%9C%EB%A6%BD%ED%95%A9%EC%B0%BD%EB%8B%A8%20%EA%B8%B0%ED%9A%8D%EC%97%B0%EC%A3%BC%ED%9A%8C2%20%E3%80%88%EA%B5%90%EA%B3%BC%EC%84%9C%20%EC%9D%8C%EC%95%85%ED%9A%8C%E3%80%89%20-%20%EB%8C%80%EC%A0%84&amp;amp;os=29811901&amp;amp;pkid=269" role="button" target="_blank"&gt;&lt;span class="place_bluelink VX2vb"&gt;대전시립합창단 기획</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>['234', '234', 'e12bd3ad507654b4cf69269724872a4320181201025103', 'mid', '4.0', '대전 선화동 계룡문고', 'category3', '3', '1.0', '36.327934198183', '127.42289305455', '34839', '대전광역시 중구 중앙로 119', '', '', "{'openDays': ['mon', 'tue', 'wed', 'thu', 'fri', 'sat', 'sun'], 'openTime': '10:00', 'closeTime': '09:00'}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '명절 당일만 휴일', '0422224600', '', 'Y', '14', 'pan02040@naver.com', 'kakaotalk', '2018-12-01 02:51:03', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 10, "sfsDesc": [], "sfsName": {"en": "Disabled toilet available", "ko": "\\uc7a5\\uc560\\uc778 \\ud654\\uc7a5\\uc2e4 \\uc788\\uc74c"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 2, "sfsIconName": "icon_restroom.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 12, "sfsDesc": [], "sfsName": {"en": "Elevator for the disabled", "ko": "\\uc7a5\\uc560\\uc778 \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 4, "sfsIconName": "icon_disabledelevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 13, "sfsDesc": {"en": "There must be no stairs on the way to the elevator, and the width of the elevator entrance must be at least 32 inches / 81 cm.", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130\\uae4c\\uc9c0 \\uc774\\ub3d9\\ud558\\ub294\\ub370 \\uacc4\\ub2e8\\uc774 \\uc5c6\\uc5b4\\uc57c\\ud558\\uba70, \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130 \\uc785\\uad6c\\uc758 \\uac00\\ub85c \\uae38\\uc774\\uac00 \\ucd5c\\uc18c 32\\uc778\\uce58/81cm\\uc774\\uc5b4\\uc57c \\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Elevator", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 5, "sfsIconName": "icon_elevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 15, "sfsDesc": {"en": "The Internet connection is stable", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uc5d0\\uc11c \\uc778\\ud130\\ub137\\uc774 \\ub04a\\uc784\\uc5c6\\uc774 \\uc5f0\\uacb0"}, "sfsName": {"en": "Wifi zone", "ko": "\\ubb34\\uc120 \\uc778\\ud130\\ub137"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 7, "sfsIconName": "icon_wifi.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 16, "sfsDesc": [], "sfsName": {"en": "Suitable for family / children", "ko": "\\uac00\\uc871/\\uc5b4\\ub9b0\\uc774 \\uc774\\uc6a9\\uc5d0 \\uc801\\ud569"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 8, "sfsIconName": "icon_people.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '선화동', '대전광역시 중구 중앙로 119', '34839.0', '', '', '', '16047645.0', '16047645.0', 'True', '계룡문고', '[{"pk_0": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_0.jpg"}, {"cid_0": "img_cid_16047645_0.jpg"}, {"pk_1": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_1.jpg"}, {"cid_1": "img_cid_16047645_1.jpg"}, {"pk_2": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_2.jpg"}, {"cid_2": "img_cid_16047645_2.jpg"}, {"pk_3": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_3.jpg"}, {"cid_3": "img_cid_16047645_3.jpg"}, {"pk_4": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_4.jpg"}, {"cid_4": "img_cid_16047645_4.jpg"}, {"pk_5": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_5.jpg"}, {"cid_5": "img_cid_16047645_5.jpg"}, {"pk_6": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_6.jpg"}, {"cid_6": "img_cid_16047645_6.jpg"}]', '', '', '', '', '', '', '[\'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;평일 10:00 - 20:30&lt;!-- --&gt; &lt;!-- --&gt;명절 전날 10:00~19:00&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;토요일 10:00 - 20:30&lt;!-- --&gt; &lt;!-- --&gt;명절 다음날 12:00~20:30&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;일요일 10:00 - 20:30&lt;!-- --&gt; &lt;!-- --&gt;명절 당일 휴점&lt;/span&gt;&lt;span class="_UCia"&gt;&lt;svg aria-hidden="true" class="DNzQ2" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;접기&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\']', '042-222-4600', '[&lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;시설이 잘되있어서 좋아 요.&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/61d146e9edc8260006411ef2/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/61d146e9edc8260006411ef2/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;Jseoni336 Com&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;3.20.월&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 20일 월요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;2번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;삼월 세번째 방문하면서 좋은책 가져왔습니다.  ❤️&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5fdece15b769c6beb48b18cf/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=w250&amp;amp;src=https%3A%2F%2Fmyplace-phinf.pstatic.net%2F20220918_67%2F16635099444474hEbs_JPEG%2F20220718_182609.jpg" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5fdece15b769c6beb48b18cf/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;보해수 칼선생&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;3.19.일&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 19일 일요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="x0W33"&gt;&lt;a class="place_thumb" href="#" role="button" target="_self"&gt;&lt;img alt="방문자리뷰" class="_img" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f87_87&amp;amp;src=https%3A%2F%2Fpup-review-phinf.pstatic.net%2FMjAyMzAzMTlfMjIz%2FMDAxNjc5MTk4MDg4MzE4.coCkB0dwRgpj4xfcSVaKyMRTXpayNIKES9SSTfNRABAg.yk2lSswBSCLyT_LomK9ezNVqA-DVFvyd_51IXew2p2Ig.JPEG%2F1679198078152.jpg"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;2&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;📚 의 종류가 많아서 좋아 요.&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/61d146e9edc8260006411ef2/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/61d146e9edc8260006411ef2/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;Jseoni336 Com&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;3.18.토&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 18일 토요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;]', '[]', '[&lt;li class="S99DR"&gt;&lt;a class="QJBnP" href="https://m.blog.naver.com/krbookv/223047209807" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="\'책 읽기는 귀찮지만 독서는 해야하는 너에게\' 김경민 작가 강연 안내" height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f160_160&amp;amp;src=http%3A%2F%2Fblogthumb2.naver.net%2FMjAyMzAzMTdfMjg2%2FMDAxNjc5MDE5NjA0NDkx.Veeox0UJojwHsr1q4SPwXhL9i-Y6DKuQ5DS28NVA02Ag.DnxGyX7FQx76xFtMvMzJSXUWYeY994u7UNDlrrzl6lQg.JPEG.krbookv%2F%25B1%25E8%25B0%25E6%25B9%25CEsns.jpg" width="100%"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;div class="wUsbY"&gt;&lt;div class="iMrYJ"&gt;&lt;a class="GLcps" href="https://m.blog.naver.com/krbookv/223047209807" role="button" target="_blank"&gt;&lt;span class="place_bluelink"&gt;\'책 읽기는 귀찮지만 독서는 해야하는 너에게\' 김경민 작가 강연 안내&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="NzPdp"&gt;&lt;time aria-hidden="true"&gt;2023.03.17&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 17일&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="S99DR"&gt;&lt;a class="QJBnP" href="https://m.blog.naver.com/krbookv/223047200270" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="4월7일 부터 김홍한 선생님과 함께 그리스 로마 신화 읽기 시작합니다." height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f160_160&amp;amp;src=http%3A%2F%2Fblogthumb2.naver.net%2FMjAyMzAzMTdfMTk3%2FMDAxNjc5MDE5MzczNTEz.zGyi0c34iWZxsoLEys5cjw4LJsz8NKrqu_lY6fPYHVsg.WDcgoYeatzd2p5deF-_wKOw7kaRk9TZMIAq8T2QgP3gg.JPEG.krbookv%2F%25B1%25D7%25B8%25AE%25BD%25BA%25B7%25CE%25B8%25B6sns.jpg" width="100%"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;div class="wUsbY"&gt;&lt;div class="iMrYJ"&gt;&lt;a class="GLcps" href="https://m.blog.naver.com/krbookv/223047200270" role="button" target="_blank"&gt;&lt;span class="place_bluelink"&gt;4월7일 부터 김홍한 선생님과 함께 그리스 로마 신화 읽기 시작합니다.&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="NzPdp"&gt;&lt;time aria-hidden="true"&gt;2023.03.17&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 17일&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="S99DR"&gt;&lt;a class="QJBnP" href="https://m.blog.naver.com/krbookv/222918661956" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="대전평생교육진흥원과 함께하는 \'어디에나 있고  어디에도 없는\' 안시내 작가와의 만남" height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f160_160&amp;amp;src=http%3A%2F%2Fblogthumb2.naver.net%2FMjAyMjExMDNfNTcg%2FMDAxNjY3NDU5OTExMTQ0.DqtbotUR0kk3FmhDbTr3NytU3M4F23NRkDWCBjA3Vu0g.a7Q-6QdkYaN7GcgOpcF9qecIhVW1wA5w4MDpLYMAcXgg.PNG.krbookv%2FKakaoTalk_20221103_160729353.png" width="100%"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;div class="wUsbY"&gt;&lt;div class="iMrYJ"&gt;&lt;a class="GLcps" href="https://m.blog.naver.com/krbookv/222918661956" role="button" target="_blank"&gt;&lt;span class="place_bluelink"&gt;대전평생교육진흥원과 함께하는 \'어디에나 있고  어디에도 없는\' 안시내 작가와의 만남&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="NzPdp"&gt;&lt;time aria-hidden="true"&gt;2022.11.03&lt;/time&gt;&lt;span class="place_blind"&gt;2022년 11월 3일&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;]']</t>
+          <t>['234', '234', 'e12bd3ad507654b4cf69269724872a4320181201025103', 'mid', '4.0', '대전 선화동 계룡문고', 'category3', '3', '1.0', '36.327934198183', '127.42289305455', '34839', '대전광역시 중구 중앙로 119', '', '', "{'openDays': ['mon', 'tue', 'wed', 'thu', 'fri', 'sat', 'sun'], 'openTime': '10:00', 'closeTime': '09:00'}", "{'openTime': '', 'closeDays': '', 'closeTime': ''}", '명절 당일만 휴일', '0422224600', '', 'Y', '14', 'pan02040@naver.com', 'kakaotalk', '2018-12-01 02:51:03', '0', '0', '[{"sfsSeq": 8, "sfsDesc": {"en": "Easily accessible for Wheelchairs.", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc\\uc774 \\uc6a9\\uc774\\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Wheelchair accessible", "ko": "\\ud720\\uccb4\\uc5b4 \\uc811\\uadfc \\uac00\\ub2a5"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 0, "sfsIconName": "icon_disabled.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 10, "sfsDesc": [], "sfsName": {"en": "Disabled toilet available", "ko": "\\uc7a5\\uc560\\uc778 \\ud654\\uc7a5\\uc2e4 \\uc788\\uc74c"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 2, "sfsIconName": "icon_restroom.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 12, "sfsDesc": [], "sfsName": {"en": "Elevator for the disabled", "ko": "\\uc7a5\\uc560\\uc778 \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 4, "sfsIconName": "icon_disabledelevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 13, "sfsDesc": {"en": "There must be no stairs on the way to the elevator, and the width of the elevator entrance must be at least 32 inches / 81 cm.", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130\\uae4c\\uc9c0 \\uc774\\ub3d9\\ud558\\ub294\\ub370 \\uacc4\\ub2e8\\uc774 \\uc5c6\\uc5b4\\uc57c\\ud558\\uba70, \\uc5d8\\ub9ac\\ubca0\\uc774\\ud130 \\uc785\\uad6c\\uc758 \\uac00\\ub85c \\uae38\\uc774\\uac00 \\ucd5c\\uc18c 32\\uc778\\uce58/81cm\\uc774\\uc5b4\\uc57c \\ud569\\ub2c8\\ub2e4."}, "sfsName": {"en": "Elevator", "ko": "\\uc5d8\\ub9ac\\ubca0\\uc774\\ud130"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 5, "sfsIconName": "icon_elevator.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 15, "sfsDesc": {"en": "The Internet connection is stable", "ko": "\\ud574\\ub2f9 \\uc7a5\\uc18c\\uc5d0\\uc11c \\uc778\\ud130\\ub137\\uc774 \\ub04a\\uc784\\uc5c6\\uc774 \\uc5f0\\uacb0"}, "sfsName": {"en": "Wifi zone", "ko": "\\ubb34\\uc120 \\uc778\\ud130\\ub137"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 7, "sfsIconName": "icon_wifi.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}, {"sfsSeq": 16, "sfsDesc": [], "sfsName": {"en": "Suitable for family / children", "ko": "\\uac00\\uc871/\\uc5b4\\ub9b0\\uc774 \\uc774\\uc6a9\\uc5d0 \\uc801\\ud569"}, "isChecked": true, "sfsIconUrl": "https://s3.ap-northeast-2.amazonaws.com/bfzido/images/facilities_icon/", "sfsSortNum": 8, "sfsIconName": "icon_people.png", "sfsIsEnabled": "Y", "sfsRegDatetime": "2018-06-28 18:30:00"}]', '선화동', '대전광역시 중구 중앙로 119', '34839.0', '', '', '', '16047645.0', '16047645.0', 'True', '계룡문고', '[{"pk_0": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_0.jpg"}, {"cid_0": "img_cid_16047645_0.jpg"}, {"pk_1": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_1.jpg"}, {"cid_1": "img_cid_16047645_1.jpg"}, {"pk_2": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_2.jpg"}, {"cid_2": "img_cid_16047645_2.jpg"}, {"pk_3": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_3.jpg"}, {"cid_3": "img_cid_16047645_3.jpg"}, {"pk_4": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_4.jpg"}, {"cid_4": "img_cid_16047645_4.jpg"}, {"pk_5": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_5.jpg"}, {"cid_5": "img_cid_16047645_5.jpg"}, {"pk_6": "img_pk_e12bd3ad507654b4cf69269724872a4320181201025103_6.jpg"}, {"cid_6": "img_cid_16047645_6.jpg"}]', '', '', '', '', '', '', '[\'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;평일 10:00 - 20:30&lt;!-- --&gt; &lt;!-- --&gt;명절 전날 10:00~19:00&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;토요일 10:00 - 20:30&lt;!-- --&gt; &lt;!-- --&gt;명절 다음날 12:00~20:30&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\', \'&lt;div class="w9QyJ"&gt;&lt;div class="y6tNq"&gt;&lt;span class="A_cdD"&gt;일요일 10:00 - 20:30&lt;!-- --&gt; &lt;!-- --&gt;명절 당일 휴점&lt;/span&gt;&lt;span class="_UCia"&gt;&lt;svg aria-hidden="true" class="DNzQ2" viewbox="0 0 12 7" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M11.47.52a.74.74 0 00-1.04 0l-4.4 4.45v.01L1.57.52A.74.74 0 10.53 1.57l5.12 5.08a.5.5 0 00.7 0l5.12-5.08a.74.74 0 000-1.05z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="place_blind"&gt;접기&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;\']', '042-222-4600', '[&lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;시설이 잘되있어서 좋아 요.&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/61d146e9edc8260006411ef2/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/61d146e9edc8260006411ef2/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;Jseoni336 Com&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;3.20.월&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 20일 월요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;2번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;삼월 세번째 방문하면서 좋은책 가져왔습니다.  ❤️&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/5fdece15b769c6beb48b18cf/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=w250&amp;amp;src=https%3A%2F%2Fmyplace-phinf.pstatic.net%2F20220918_67%2F16635099444474hEbs_JPEG%2F20220718_182609.jpg" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/5fdece15b769c6beb48b18cf/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;보해수 칼선생&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;3.19.일&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 19일 일요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="x0W33"&gt;&lt;a class="place_thumb" href="#" role="button" target="_self"&gt;&lt;img alt="방문자리뷰" class="_img" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f87_87&amp;amp;src=https%3A%2F%2Fpup-review-phinf.pstatic.net%2FMjAyMzAzMTlfMjIz%2FMDAxNjc5MTk4MDg4MzE4.coCkB0dwRgpj4xfcSVaKyMRTXpayNIKES9SSTfNRABAg.yk2lSswBSCLyT_LomK9ezNVqA-DVFvyd_51IXew2p2Ig.JPEG%2F1679198078152.jpg"/&gt;&lt;span class="place_thumb_count"&gt;&lt;span class="place_blind"&gt;이미지 수&lt;/span&gt;2&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="qrzj_"&gt;&lt;div class="IEbo1"&gt;&lt;div class="GP2eR"&gt;&lt;div class="RGkHL"&gt;&lt;a aria-expanded="false" class="xHaT3" href="#" role="button" style="display: block;" target="_self"&gt;&lt;span class="zPfVt"&gt;📚 의 종류가 많아서 좋아 요.&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="ozEbl"&gt;&lt;a class="iz4rh" href="https://m.place.naver.com/my/61d146e9edc8260006411ef2/review?v=2" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="프로필" class="YMYlP" height="28" src="https://g-place.pstatic.net/assets/shared/images/icon_default_profile.png" width="28"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;a class="iKqnp" href="https://m.place.naver.com/my/61d146e9edc8260006411ef2/review?v=2" role="button" target="_blank"&gt;&lt;div class="rg88i"&gt;Jseoni336 Com&lt;/div&gt;&lt;div class="FrWK3"&gt;&lt;span class="ExHfk"&gt;&lt;span class="place_blind"&gt;최근 방문일&lt;/span&gt;&lt;time aria-hidden="true"&gt;3.18.토&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 18일 토요일&lt;/span&gt;&lt;/span&gt;&lt;span class="ExHfk"&gt;1번째 방문&lt;/span&gt;&lt;span class="ExHfk"&gt;영수증&lt;/span&gt;&lt;/div&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;]', '[]', '[&lt;li class="S99DR"&gt;&lt;a class="QJBnP" href="https://m.blog.naver.com/krbookv/223047209807" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="\'책 읽기는 귀찮지만 독서는 해야하는 너에게\' 김경민 작가 강연 안내" height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f160_160&amp;amp;src=http%3A%2F%2Fblogthumb2.naver.net%2FMjAyMzAzMTdfMjg2%2FMDAxNjc5MDE5NjA0NDkx.Veeox0UJojwHsr1q4SPwXhL9i-Y6DKuQ5DS28NVA02Ag.DnxGyX7FQx76xFtMvMzJSXUWYeY994u7UNDlrrzl6lQg.JPEG.krbookv%2F%25B1%25E8%25B0%25E6%25B9%25CEsns.jpg" width="100%"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;div class="wUsbY"&gt;&lt;div class="iMrYJ"&gt;&lt;a class="GLcps" href="https://m.blog.naver.com/krbookv/223047209807" role="button" target="_blank"&gt;&lt;span class="place_bluelink"&gt;\'책 읽기는 귀찮지만 독서는 해야하는 너에게\' 김경민 작가 강연 안내&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="NzPdp"&gt;&lt;time aria-hidden="true"&gt;2023.03.17&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 17일&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="S99DR"&gt;&lt;a class="QJBnP" href="https://m.blog.naver.com/krbookv/223047200270" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="4월7일 부터 김홍한 선생님과 함께 그리스 로마 신화 읽기 시작합니다." height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f160_160&amp;amp;src=http%3A%2F%2Fblogthumb2.naver.net%2FMjAyMzAzMTdfMTk3%2FMDAxNjc5MDE5MzczNTEz.zGyi0c34iWZxsoLEys5cjw4LJsz8NKrqu_lY6fPYHVsg.WDcgoYeatzd2p5deF-_wKOw7kaRk9TZMIAq8T2QgP3gg.JPEG.krbookv%2F%25B1%25D7%25B8%25AE%25BD%25BA%25B7%25CE%25B8%25B6sns.jpg" width="100%"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;div class="wUsbY"&gt;&lt;div class="iMrYJ"&gt;&lt;a class="GLcps" href="https://m.blog.naver.com/krbookv/223047200270" role="button" target="_blank"&gt;&lt;span class="place_bluelink"&gt;4월7일 부터 김홍한 선생님과 함께 그리스 로마 신화 읽기 시작합니다.&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;&lt;div class="NzPdp"&gt;&lt;time aria-hidden="true"&gt;2023.03.17&lt;/time&gt;&lt;span class="place_blind"&gt;2023년 3월 17일&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;, &lt;li class="S99DR"&gt;&lt;a class="QJBnP" href="https://m.blog.naver.com/krbookv/222918661956" role="button" target="_blank"&gt;&lt;div class="place_thumb"&gt;&lt;img alt="대전평생교육진흥원과 함께하는 \'어디에나 있고  어디에도 없는\' 안시내 작가와의 만남" height="auto" src="https://search.pstatic.net/common/?autoRotate=true&amp;amp;quality=95&amp;amp;type=f160_160&amp;amp;src=http%3A%2F%2Fblogthumb2.naver.net%2FMjAyMjExMDNfNTcg%2FMDAxNjY3NDU5OTExMTQ0.DqtbotUR0kk3FmhDbTr3NytU3M4F23NRkDWCBjA3Vu0g.a7Q-6QdkYaN7GcgOpcF9qecIhVW1wA5w4MDpLYMAcXgg.PNG.krbookv%2FKakaoTalk_20221103_160729353.png" width="100%"/&gt;&lt;/div&gt;&lt;/a&gt;&lt;div class="wUsbY"&gt;&lt;div class="iMrYJ"&gt;&lt;a class="GLcps" href="https://m.blog.naver.com/krbookv/222918661956" role="button" target="_blank"&gt;&lt;span class="place_bluelink"&gt;대전평생교육진흥원과 함께하는 \'어디에나 있고  어디에도 없는\' 안</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
